--- a/4-datos/1-indicadores-de-resultados/1-inspecciones/inspeccion-limpieza-baño-02052016.xlsx
+++ b/4-datos/1-indicadores-de-resultados/1-inspecciones/inspeccion-limpieza-baño-02052016.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="135" windowWidth="15600" windowHeight="7935" tabRatio="413"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="112">
   <si>
     <t>T S103</t>
   </si>
@@ -336,26 +336,29 @@
     <t xml:space="preserve"> TS105</t>
   </si>
   <si>
+    <t>JORGE</t>
+  </si>
+  <si>
     <t>FERNANDO</t>
   </si>
   <si>
-    <t>JORGE</t>
-  </si>
-  <si>
-    <t>EMILIANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JORGE </t>
+    <t>NANCY</t>
+  </si>
+  <si>
+    <t>S/GRIFERIA</t>
+  </si>
+  <si>
+    <t>S/JABONERA</t>
+  </si>
+  <si>
+    <t>CLAUSURADO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,13 +368,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -429,11 +425,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -447,24 +442,18 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -772,7 +761,9 @@
   <dimension ref="A1:I272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane xSplit="19905" topLeftCell="N1"/>
+      <selection activeCell="E266" sqref="E266"/>
+      <selection pane="topRight" activeCell="N73" sqref="N73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +772,7 @@
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="10.140625" customWidth="1"/>
@@ -792,16 +783,16 @@
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="3" t="s">
         <v>91</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -815,8 +806,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>2052016</v>
+      <c r="A2" s="7">
+        <v>26052016</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>99</v>
@@ -831,16 +822,16 @@
       <c r="F2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>107</v>
+      <c r="G2" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H2" s="5">
-        <v>0.45833333333333331</v>
+        <v>0.29305555555555557</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>2052016</v>
+      <c r="A3" s="7">
+        <v>26052016</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>99</v>
@@ -855,16 +846,16 @@
       <c r="F3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>108</v>
+      <c r="G3" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H3" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>2052016</v>
+      <c r="A4" s="7">
+        <v>26052016</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>99</v>
@@ -873,22 +864,22 @@
         <v>101</v>
       </c>
       <c r="D4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>106</v>
+      <c r="G4" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H4" s="5">
-        <v>7.6388888888888895E-2</v>
+        <v>8.4722222222222213E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>2052016</v>
+      <c r="A5" s="7">
+        <v>26052016</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>100</v>
@@ -897,22 +888,22 @@
         <v>101</v>
       </c>
       <c r="D5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>109</v>
+      <c r="G5" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H5" s="5">
-        <v>0.45902777777777781</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>2052016</v>
+      <c r="A6" s="7">
+        <v>26052016</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>100</v>
@@ -921,22 +912,22 @@
         <v>101</v>
       </c>
       <c r="D6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>108</v>
+      <c r="G6" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H6" s="5">
-        <v>0.75069444444444444</v>
+        <v>0.75138888888888899</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>2052016</v>
+      <c r="A7" s="7">
+        <v>26052016</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>100</v>
@@ -951,16 +942,16 @@
       <c r="F7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>106</v>
+      <c r="G7" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H7" s="5">
-        <v>7.9861111111111105E-2</v>
+        <v>8.6111111111111124E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>2052016</v>
+      <c r="A8" s="7">
+        <v>26052016</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>0</v>
@@ -969,22 +960,22 @@
         <v>101</v>
       </c>
       <c r="D8" s="1">
-        <v>4</v>
-      </c>
-      <c r="E8" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="E8" s="8"/>
       <c r="F8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>107</v>
+      <c r="G8" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H8" s="5">
-        <v>0.46180555555555558</v>
+        <v>0.2951388888888889</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>2052016</v>
+      <c r="A9" s="7">
+        <v>26052016</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>0</v>
@@ -993,22 +984,22 @@
         <v>101</v>
       </c>
       <c r="D9" s="1">
-        <v>4</v>
-      </c>
-      <c r="E9" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="E9" s="8"/>
       <c r="F9" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>108</v>
+      <c r="G9" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H9" s="5">
-        <v>0.75208333333333333</v>
+        <v>0.75277777777777777</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>2052016</v>
+      <c r="A10" s="7">
+        <v>26052016</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>0</v>
@@ -1017,22 +1008,22 @@
         <v>101</v>
       </c>
       <c r="D10" s="1">
-        <v>4</v>
-      </c>
-      <c r="E10" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="E10" s="8"/>
       <c r="F10" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>106</v>
+      <c r="G10" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H10" s="5">
-        <v>8.3333333333333329E-2</v>
+        <v>8.7500000000000008E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>2052016</v>
+      <c r="A11" s="7">
+        <v>26052016</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
@@ -1041,22 +1032,24 @@
         <v>101</v>
       </c>
       <c r="D11" s="1">
-        <v>3</v>
-      </c>
-      <c r="E11" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>109</v>
+      </c>
       <c r="F11" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>107</v>
+      <c r="G11" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H11" s="5">
-        <v>0.46249999999999997</v>
+        <v>0.29583333333333334</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>2052016</v>
+      <c r="A12" s="7">
+        <v>26052016</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
@@ -1067,20 +1060,22 @@
       <c r="D12" s="1">
         <v>3</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="8" t="s">
+        <v>109</v>
+      </c>
       <c r="F12" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>108</v>
+      <c r="G12" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H12" s="5">
-        <v>0.75277777777777777</v>
+        <v>0.75347222222222221</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>2052016</v>
+      <c r="A13" s="7">
+        <v>26052016</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
@@ -1091,20 +1086,20 @@
       <c r="D13" s="1">
         <v>3</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>106</v>
+      <c r="G13" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H13" s="5">
-        <v>8.4027777777777771E-2</v>
+        <v>8.8888888888888892E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>2052016</v>
+      <c r="A14" s="7">
+        <v>26052016</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>105</v>
@@ -1115,20 +1110,22 @@
       <c r="D14" s="1">
         <v>3</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="F14" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>107</v>
+      <c r="G14" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H14" s="5">
-        <v>0.46319444444444446</v>
+        <v>0.29652777777777778</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>2052016</v>
+      <c r="A15" s="7">
+        <v>26052016</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>2</v>
@@ -1137,46 +1134,48 @@
         <v>101</v>
       </c>
       <c r="D15" s="1">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="F15" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>108</v>
+      <c r="G15" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H15" s="5">
-        <v>0.75347222222222221</v>
+        <v>0.75416666666666676</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>2052016</v>
-      </c>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="7">
+        <v>26052016</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="11">
+      <c r="C16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="1">
         <v>3</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>106</v>
+      <c r="G16" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H16" s="5">
-        <v>8.5416666666666655E-2</v>
+        <v>9.0277777777777776E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>2052016</v>
+      <c r="A17" s="7">
+        <v>26052016</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>98</v>
@@ -1185,22 +1184,22 @@
         <v>101</v>
       </c>
       <c r="D17" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
+      <c r="G17" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H17" s="5">
-        <v>0.46527777777777773</v>
+        <v>0.30069444444444443</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>2052016</v>
+      <c r="A18" s="7">
+        <v>26052016</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>98</v>
@@ -1215,16 +1214,16 @@
       <c r="F18" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>108</v>
+      <c r="G18" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H18" s="5">
-        <v>0.75694444444444453</v>
+        <v>0.75555555555555554</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>2052016</v>
+      <c r="A19" s="7">
+        <v>26052016</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>98</v>
@@ -1233,22 +1232,22 @@
         <v>101</v>
       </c>
       <c r="D19" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>106</v>
+      <c r="G19" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H19" s="5">
-        <v>8.6805555555555566E-2</v>
+        <v>9.1666666666666674E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>2052016</v>
+      <c r="A20" s="7">
+        <v>26052016</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>3</v>
@@ -1263,16 +1262,16 @@
       <c r="F20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>107</v>
+      <c r="G20" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H20" s="5">
-        <v>0.46597222222222223</v>
+        <v>0.30138888888888887</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>2052016</v>
+      <c r="A21" s="7">
+        <v>26052016</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>3</v>
@@ -1287,16 +1286,16 @@
       <c r="F21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>108</v>
+      <c r="G21" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H21" s="5">
-        <v>0.75763888888888886</v>
+        <v>0.75694444444444453</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>2052016</v>
+      <c r="A22" s="7">
+        <v>26052016</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3</v>
@@ -1311,16 +1310,16 @@
       <c r="F22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>106</v>
+      <c r="G22" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H22" s="5">
-        <v>9.0277777777777776E-2</v>
+        <v>9.3055555555555558E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>2052016</v>
+      <c r="A23" s="7">
+        <v>26052016</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>4</v>
@@ -1335,16 +1334,16 @@
       <c r="F23" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>107</v>
+      <c r="G23" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H23" s="5">
-        <v>0.46666666666666662</v>
+        <v>0.29791666666666666</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>2052016</v>
+      <c r="A24" s="7">
+        <v>26052016</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>4</v>
@@ -1359,16 +1358,16 @@
       <c r="F24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>108</v>
+      <c r="G24" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H24" s="5">
-        <v>0.75486111111111109</v>
+        <v>0.7583333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>2052016</v>
+      <c r="A25" s="7">
+        <v>26052016</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>4</v>
@@ -1377,22 +1376,22 @@
         <v>101</v>
       </c>
       <c r="D25" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>106</v>
+      <c r="G25" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H25" s="5">
-        <v>9.7222222222222224E-2</v>
+        <v>9.4444444444444442E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>2052016</v>
+      <c r="A26" s="7">
+        <v>26052016</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>5</v>
@@ -1407,16 +1406,16 @@
       <c r="F26" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>107</v>
+      <c r="G26" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H26" s="5">
-        <v>0.4680555555555555</v>
+        <v>0.2986111111111111</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>2052016</v>
+      <c r="A27" s="7">
+        <v>26052016</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>5</v>
@@ -1425,22 +1424,24 @@
         <v>101</v>
       </c>
       <c r="D27" s="1">
-        <v>4</v>
-      </c>
-      <c r="E27" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="F27" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>108</v>
+      <c r="G27" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H27" s="5">
-        <v>0.75555555555555554</v>
+        <v>9.5833333333333326E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>2052016</v>
+      <c r="A28" s="7">
+        <v>26052016</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>5</v>
@@ -1451,20 +1452,22 @@
       <c r="D28" s="1">
         <v>3</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="F28" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>106</v>
+      <c r="G28" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H28" s="5">
-        <v>9.8611111111111108E-2</v>
+        <v>0.7597222222222223</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
-        <v>2052016</v>
+      <c r="A29" s="7">
+        <v>26052016</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>6</v>
@@ -1473,22 +1476,22 @@
         <v>101</v>
       </c>
       <c r="D29" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>109</v>
+      <c r="G29" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H29" s="5">
-        <v>0.46875</v>
+        <v>9.7222222222222224E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
-        <v>2052016</v>
+      <c r="A30" s="7">
+        <v>26052016</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>6</v>
@@ -1497,22 +1500,22 @@
         <v>101</v>
       </c>
       <c r="D30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>108</v>
+      <c r="G30" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H30" s="5">
-        <v>0.75624999999999998</v>
+        <v>0.7597222222222223</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
-        <v>2052016</v>
+      <c r="A31" s="7">
+        <v>26052016</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>6</v>
@@ -1521,22 +1524,22 @@
         <v>101</v>
       </c>
       <c r="D31" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>106</v>
+      <c r="G31" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H31" s="5">
-        <v>9.930555555555555E-2</v>
+        <v>9.7222222222222224E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
-        <v>2052016</v>
+      <c r="A32" s="7">
+        <v>26052016</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>7</v>
@@ -1545,22 +1548,22 @@
         <v>101</v>
       </c>
       <c r="D32" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>107</v>
+      <c r="G32" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H32" s="5">
-        <v>0.47013888888888888</v>
+        <v>0.30208333333333331</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
-        <v>2052016</v>
+      <c r="A33" s="7">
+        <v>26052016</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>7</v>
@@ -1569,22 +1572,22 @@
         <v>101</v>
       </c>
       <c r="D33" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G33" s="7" t="s">
-        <v>108</v>
+      <c r="G33" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H33" s="5">
-        <v>0.75763888888888886</v>
+        <v>0.76111111111111107</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
-        <v>2052016</v>
+      <c r="A34" s="7">
+        <v>26052016</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>7</v>
@@ -1593,22 +1596,22 @@
         <v>101</v>
       </c>
       <c r="D34" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>106</v>
+      <c r="G34" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H34" s="5">
-        <v>0.1076388888888889</v>
+        <v>9.8611111111111108E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <v>2052016</v>
+      <c r="A35" s="7">
+        <v>26052016</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>8</v>
@@ -1617,22 +1620,22 @@
         <v>101</v>
       </c>
       <c r="D35" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G35" s="7" t="s">
-        <v>107</v>
+      <c r="G35" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H35" s="5">
-        <v>0.47083333333333338</v>
+        <v>0.30277777777777776</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
-        <v>2052016</v>
+      <c r="A36" s="7">
+        <v>26052016</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>8</v>
@@ -1641,22 +1644,22 @@
         <v>101</v>
       </c>
       <c r="D36" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>108</v>
+      <c r="G36" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H36" s="5">
-        <v>0.7583333333333333</v>
+        <v>0.76180555555555562</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
-        <v>2052016</v>
+      <c r="A37" s="7">
+        <v>26052016</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>8</v>
@@ -1665,22 +1668,22 @@
         <v>101</v>
       </c>
       <c r="D37" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G37" s="7" t="s">
-        <v>106</v>
+      <c r="G37" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H37" s="5">
-        <v>0.10416666666666667</v>
+        <v>9.9999999999999992E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
-        <v>2052016</v>
+      <c r="A38" s="7">
+        <v>26052016</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>9</v>
@@ -1695,16 +1698,16 @@
       <c r="F38" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>107</v>
+      <c r="G38" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H38" s="5">
-        <v>0.47152777777777777</v>
+        <v>0.30486111111111108</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
-        <v>2052016</v>
+      <c r="A39" s="7">
+        <v>26052016</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>9</v>
@@ -1713,22 +1716,24 @@
         <v>101</v>
       </c>
       <c r="D39" s="1">
-        <v>4</v>
-      </c>
-      <c r="E39" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F39" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G39" s="7" t="s">
-        <v>108</v>
+      <c r="G39" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H39" s="5">
-        <v>0.7597222222222223</v>
+        <v>0.7631944444444444</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
-        <v>2052016</v>
+      <c r="A40" s="7">
+        <v>26052016</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>9</v>
@@ -1743,16 +1748,16 @@
       <c r="F40" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>106</v>
+      <c r="G40" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H40" s="5">
-        <v>0.10555555555555556</v>
+        <v>0.1013888888888889</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
-        <v>2052016</v>
+      <c r="A41" s="7">
+        <v>26052016</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>10</v>
@@ -1761,22 +1766,22 @@
         <v>101</v>
       </c>
       <c r="D41" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G41" s="7" t="s">
-        <v>109</v>
+      <c r="G41" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H41" s="5">
-        <v>0.47222222222222227</v>
+        <v>0.30416666666666664</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
-        <v>2052016</v>
+      <c r="A42" s="7">
+        <v>26052016</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>10</v>
@@ -1785,22 +1790,22 @@
         <v>101</v>
       </c>
       <c r="D42" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G42" s="7" t="s">
-        <v>108</v>
+      <c r="G42" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H42" s="5">
-        <v>0.76041666666666663</v>
+        <v>0.76388888888888884</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
-        <v>2052016</v>
+      <c r="A43" s="7">
+        <v>26052016</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>10</v>
@@ -1815,16 +1820,16 @@
       <c r="F43" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G43" s="7" t="s">
-        <v>106</v>
+      <c r="G43" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H43" s="5">
-        <v>0.10694444444444444</v>
+        <v>0.10277777777777779</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
-        <v>2052016</v>
+      <c r="A44" s="7">
+        <v>26052016</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>11</v>
@@ -1833,22 +1838,24 @@
         <v>101</v>
       </c>
       <c r="D44" s="1">
-        <v>3</v>
-      </c>
-      <c r="E44" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="F44" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G44" s="7" t="s">
-        <v>107</v>
+      <c r="G44" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H44" s="5">
-        <v>0.47361111111111115</v>
+        <v>0.30555555555555552</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
-        <v>2052016</v>
+      <c r="A45" s="7">
+        <v>26052016</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>11</v>
@@ -1859,20 +1866,22 @@
       <c r="D45" s="1">
         <v>3</v>
       </c>
-      <c r="E45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="F45" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G45" s="7" t="s">
-        <v>108</v>
+      <c r="G45" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H45" s="5">
-        <v>0.76111111111111107</v>
+        <v>0.76458333333333339</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
-        <v>2052016</v>
+      <c r="A46" s="7">
+        <v>26052016</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>11</v>
@@ -1887,16 +1896,16 @@
       <c r="F46" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G46" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H46" s="5">
-        <v>0.10833333333333334</v>
+      <c r="G46" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H46" s="9">
+        <v>0.10416666666666667</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
-        <v>2052016</v>
+      <c r="A47" s="7">
+        <v>26052016</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>12</v>
@@ -1905,22 +1914,24 @@
         <v>101</v>
       </c>
       <c r="D47" s="1">
-        <v>4</v>
-      </c>
-      <c r="E47" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="F47" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G47" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H47" s="5">
-        <v>0.47430555555555554</v>
+      <c r="G47" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H47" s="9">
+        <v>0.30902777777777779</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
-        <v>2052016</v>
+      <c r="A48" s="7">
+        <v>26052016</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>12</v>
@@ -1929,22 +1940,24 @@
         <v>101</v>
       </c>
       <c r="D48" s="1">
-        <v>4</v>
-      </c>
-      <c r="E48" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F48" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G48" s="7" t="s">
-        <v>108</v>
+      <c r="G48" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H48" s="5">
-        <v>0.76250000000000007</v>
+        <v>0.76597222222222217</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
-        <v>2052016</v>
+      <c r="A49" s="7">
+        <v>26052016</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>12</v>
@@ -1953,22 +1966,24 @@
         <v>101</v>
       </c>
       <c r="D49" s="1">
-        <v>4</v>
-      </c>
-      <c r="E49" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F49" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G49" s="7" t="s">
-        <v>106</v>
+      <c r="G49" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H49" s="5">
-        <v>0.10972222222222222</v>
+        <v>0.10555555555555556</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
-        <v>2052016</v>
+      <c r="A50" s="7">
+        <v>26052016</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>13</v>
@@ -1977,22 +1992,24 @@
         <v>101</v>
       </c>
       <c r="D50" s="1">
-        <v>4</v>
-      </c>
-      <c r="E50" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="F50" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G50" s="7" t="s">
-        <v>107</v>
+      <c r="G50" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H50" s="5">
-        <v>0.47569444444444442</v>
+        <v>0.30763888888888891</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
-        <v>2052016</v>
+      <c r="A51" s="7">
+        <v>26052016</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>13</v>
@@ -2001,22 +2018,24 @@
         <v>101</v>
       </c>
       <c r="D51" s="1">
-        <v>4</v>
-      </c>
-      <c r="E51" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="F51" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G51" s="7" t="s">
-        <v>108</v>
+      <c r="G51" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H51" s="5">
-        <v>0.7631944444444444</v>
+        <v>0.76666666666666661</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="9">
-        <v>2052016</v>
+      <c r="A52" s="7">
+        <v>26052016</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>13</v>
@@ -2031,16 +2050,16 @@
       <c r="F52" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G52" s="7" t="s">
-        <v>106</v>
+      <c r="G52" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H52" s="5">
-        <v>0.1111111111111111</v>
+        <v>0.10833333333333334</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
-        <v>2052016</v>
+      <c r="A53" s="7">
+        <v>26052016</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>14</v>
@@ -2049,22 +2068,22 @@
         <v>101</v>
       </c>
       <c r="D53" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G53" s="7" t="s">
-        <v>109</v>
+      <c r="G53" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H53" s="5">
-        <v>0.47638888888888892</v>
+        <v>0.30833333333333335</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
-        <v>2052016</v>
+      <c r="A54" s="7">
+        <v>26052016</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>14</v>
@@ -2079,16 +2098,16 @@
       <c r="F54" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G54" s="7" t="s">
-        <v>108</v>
+      <c r="G54" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H54" s="5">
-        <v>0.76388888888888884</v>
+        <v>0.76736111111111116</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="9">
-        <v>2052016</v>
+      <c r="A55" s="7">
+        <v>26052016</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>14</v>
@@ -2097,22 +2116,22 @@
         <v>101</v>
       </c>
       <c r="D55" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G55" s="7" t="s">
-        <v>106</v>
+      <c r="G55" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H55" s="5">
-        <v>0.11388888888888889</v>
+        <v>0.11041666666666666</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="9">
-        <v>2052016</v>
+      <c r="A56" s="7">
+        <v>26052016</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>15</v>
@@ -2121,22 +2140,22 @@
         <v>101</v>
       </c>
       <c r="D56" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G56" s="7" t="s">
-        <v>107</v>
+      <c r="G56" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H56" s="5">
-        <v>0.4770833333333333</v>
+        <v>0.31041666666666667</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="9">
-        <v>2052016</v>
+      <c r="A57" s="7">
+        <v>26052016</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>15</v>
@@ -2145,22 +2164,22 @@
         <v>101</v>
       </c>
       <c r="D57" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G57" s="7" t="s">
-        <v>108</v>
+      <c r="G57" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H57" s="5">
-        <v>0.76527777777777783</v>
+        <v>0.76874999999999993</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
-        <v>2052016</v>
+      <c r="A58" s="7">
+        <v>26052016</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>15</v>
@@ -2169,22 +2188,22 @@
         <v>101</v>
       </c>
       <c r="D58" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G58" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H58" s="8">
-        <v>0.11527777777777777</v>
+      <c r="G58" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H58" s="5">
+        <v>0.11180555555555556</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="9">
-        <v>2052016</v>
+      <c r="A59" s="7">
+        <v>26052016</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>16</v>
@@ -2193,22 +2212,22 @@
         <v>101</v>
       </c>
       <c r="D59" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G59" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H59" s="8">
-        <v>0.48194444444444445</v>
+      <c r="G59" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H59" s="9">
+        <v>0.31111111111111112</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="9">
-        <v>2052016</v>
+      <c r="A60" s="7">
+        <v>26052016</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>16</v>
@@ -2217,22 +2236,22 @@
         <v>101</v>
       </c>
       <c r="D60" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G60" s="7" t="s">
-        <v>108</v>
+      <c r="G60" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H60" s="5">
-        <v>0.76597222222222217</v>
+        <v>0.76944444444444438</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="9">
-        <v>2052016</v>
+      <c r="A61" s="7">
+        <v>26052016</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>16</v>
@@ -2247,65 +2266,65 @@
       <c r="F61" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G61" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H61" s="8">
-        <v>0.11805555555555557</v>
+      <c r="G61" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H61" s="9">
+        <v>0.12013888888888889</v>
       </c>
       <c r="I61" s="10"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="9">
-        <v>2052016</v>
+      <c r="A62" s="7">
+        <v>26052016</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D62" s="1">
+        <v>4</v>
+      </c>
+      <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G62" s="7" t="s">
-        <v>107</v>
+      <c r="G62" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H62" s="5">
-        <v>0.47916666666666669</v>
+        <v>0.38611111111111113</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="9">
-        <v>2052016</v>
+      <c r="A63" s="7">
+        <v>26052016</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D63" s="1">
+        <v>4</v>
+      </c>
+      <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G63" s="7" t="s">
-        <v>108</v>
+      <c r="G63" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H63" s="5">
-        <v>0.76736111111111116</v>
+        <v>0.77013888888888893</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="9">
-        <v>2052016</v>
+      <c r="A64" s="7">
+        <v>26052016</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>17</v>
@@ -2320,64 +2339,64 @@
       <c r="F64" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G64" s="7" t="s">
-        <v>106</v>
+      <c r="G64" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H64" s="5">
-        <v>0.12083333333333333</v>
+        <v>0.12013888888888889</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="9">
-        <v>2052016</v>
+      <c r="A65" s="7">
+        <v>26052016</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D65" s="1">
+        <v>4</v>
+      </c>
+      <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G65" s="7" t="s">
-        <v>109</v>
+      <c r="G65" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H65" s="5">
-        <v>0.47986111111111113</v>
+        <v>0.38611111111111113</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="9">
-        <v>2052016</v>
+      <c r="A66" s="7">
+        <v>26052016</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D66" s="1">
+        <v>4</v>
+      </c>
+      <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G66" s="7" t="s">
-        <v>108</v>
+      <c r="G66" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H66" s="5">
-        <v>0.7680555555555556</v>
+        <v>0.77013888888888893</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="9">
-        <v>2052016</v>
+      <c r="A67" s="7">
+        <v>26052016</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>18</v>
@@ -2392,16 +2411,16 @@
       <c r="F67" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G67" s="7" t="s">
-        <v>106</v>
+      <c r="G67" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H67" s="5">
-        <v>0.12222222222222223</v>
+        <v>0.12083333333333333</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="9">
-        <v>2052016</v>
+      <c r="A68" s="7">
+        <v>26052016</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>19</v>
@@ -2410,22 +2429,22 @@
         <v>101</v>
       </c>
       <c r="D68" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G68" s="7" t="s">
-        <v>107</v>
+      <c r="G68" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H68" s="5">
-        <v>0.48055555555555557</v>
+        <v>0.38750000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="9">
-        <v>2052016</v>
+      <c r="A69" s="7">
+        <v>26052016</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>19</v>
@@ -2434,46 +2453,46 @@
         <v>101</v>
       </c>
       <c r="D69" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G69" s="7" t="s">
-        <v>108</v>
+      <c r="G69" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H69" s="5">
-        <v>0.76874999999999993</v>
+        <v>0.77708333333333324</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="9">
-        <v>2052016</v>
+      <c r="A70" s="7">
+        <v>26052016</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D70" s="1">
-        <v>3</v>
-      </c>
-      <c r="E70" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="F70" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G70" s="7" t="s">
-        <v>106</v>
+      <c r="G70" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H70" s="5">
-        <v>0.12361111111111112</v>
+        <v>0.12083333333333333</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="9">
-        <v>2052016</v>
+      <c r="A71" s="7">
+        <v>26052016</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>20</v>
@@ -2488,16 +2507,16 @@
       <c r="F71" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G71" s="7" t="s">
-        <v>107</v>
+      <c r="G71" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H71" s="5">
-        <v>0.48194444444444445</v>
+        <v>0.38819444444444445</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="9">
-        <v>2052016</v>
+      <c r="A72" s="7">
+        <v>26052016</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>20</v>
@@ -2512,40 +2531,40 @@
       <c r="F72" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G72" s="7" t="s">
-        <v>108</v>
+      <c r="G72" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H72" s="5">
-        <v>0.76944444444444438</v>
+        <v>0.7715277777777777</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="9">
-        <v>2052016</v>
+      <c r="A73" s="7">
+        <v>26052016</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D73" s="1">
-        <v>3</v>
-      </c>
-      <c r="E73" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="F73" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G73" s="7" t="s">
-        <v>106</v>
+      <c r="G73" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H73" s="5">
-        <v>0.12430555555555556</v>
+        <v>0.12152777777777778</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="9">
-        <v>2052016</v>
+      <c r="A74" s="7">
+        <v>26052016</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>21</v>
@@ -2554,22 +2573,22 @@
         <v>101</v>
       </c>
       <c r="D74" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G74" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H74" s="8">
-        <v>0.4826388888888889</v>
+      <c r="G74" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H74" s="9">
+        <v>0.31388888888888888</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="9">
-        <v>2052016</v>
+      <c r="A75" s="7">
+        <v>26052016</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>21</v>
@@ -2584,16 +2603,16 @@
       <c r="F75" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G75" s="7" t="s">
-        <v>108</v>
+      <c r="G75" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H75" s="5">
-        <v>0.76388888888888884</v>
+        <v>0.7729166666666667</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="9">
-        <v>2052016</v>
+      <c r="A76" s="7">
+        <v>26052016</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>21</v>
@@ -2602,22 +2621,22 @@
         <v>101</v>
       </c>
       <c r="D76" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G76" s="7" t="s">
-        <v>106</v>
+      <c r="G76" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H76" s="5">
-        <v>0.125</v>
+        <v>0.12152777777777778</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="9">
-        <v>2052016</v>
+      <c r="A77" s="7">
+        <v>26052016</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>22</v>
@@ -2632,16 +2651,16 @@
       <c r="F77" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G77" s="7" t="s">
-        <v>109</v>
+      <c r="G77" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H77" s="5">
-        <v>0.48333333333333334</v>
+        <v>0.31458333333333333</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="9">
-        <v>2052016</v>
+      <c r="A78" s="7">
+        <v>26052016</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>22</v>
@@ -2650,22 +2669,22 @@
         <v>101</v>
       </c>
       <c r="D78" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G78" s="7" t="s">
-        <v>108</v>
+      <c r="G78" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H78" s="5">
-        <v>0.7715277777777777</v>
+        <v>0.77361111111111114</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="9">
-        <v>2052016</v>
+      <c r="A79" s="7">
+        <v>26052016</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>22</v>
@@ -2680,16 +2699,16 @@
       <c r="F79" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G79" s="7" t="s">
-        <v>106</v>
+      <c r="G79" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H79" s="5">
-        <v>0.12638888888888888</v>
+        <v>0.12430555555555556</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="9">
-        <v>2052016</v>
+      <c r="A80" s="7">
+        <v>26052016</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>23</v>
@@ -2698,22 +2717,22 @@
         <v>101</v>
       </c>
       <c r="D80" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G80" s="7" t="s">
-        <v>107</v>
+      <c r="G80" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H80" s="5">
-        <v>0.48402777777777778</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="9">
-        <v>2052016</v>
+      <c r="A81" s="7">
+        <v>26052016</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>23</v>
@@ -2722,22 +2741,22 @@
         <v>101</v>
       </c>
       <c r="D81" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G81" s="7" t="s">
-        <v>108</v>
+      <c r="G81" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H81" s="5">
-        <v>0.77222222222222225</v>
+        <v>0.77500000000000002</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="9">
-        <v>2052016</v>
+      <c r="A82" s="7">
+        <v>26052016</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>23</v>
@@ -2752,16 +2771,16 @@
       <c r="F82" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G82" s="7" t="s">
-        <v>106</v>
+      <c r="G82" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H82" s="5">
-        <v>0.12708333333333333</v>
+        <v>0.12569444444444444</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="9">
-        <v>2052016</v>
+      <c r="A83" s="7">
+        <v>26052016</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>24</v>
@@ -2776,16 +2795,16 @@
       <c r="F83" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G83" s="7" t="s">
-        <v>107</v>
+      <c r="G83" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H83" s="5">
-        <v>0.48472222222222222</v>
+        <v>0.31666666666666665</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="9">
-        <v>2052016</v>
+      <c r="A84" s="7">
+        <v>26052016</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>24</v>
@@ -2800,16 +2819,16 @@
       <c r="F84" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G84" s="7" t="s">
-        <v>108</v>
+      <c r="G84" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H84" s="5">
-        <v>0.77361111111111114</v>
+        <v>0.77569444444444446</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="9">
-        <v>2052016</v>
+      <c r="A85" s="7">
+        <v>26052016</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>24</v>
@@ -2818,22 +2837,22 @@
         <v>101</v>
       </c>
       <c r="D85" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G85" s="7" t="s">
-        <v>106</v>
+      <c r="G85" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H85" s="5">
-        <v>0.12847222222222224</v>
+        <v>0.12708333333333333</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="9">
-        <v>2052016</v>
+      <c r="A86" s="7">
+        <v>26052016</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>25</v>
@@ -2848,16 +2867,16 @@
       <c r="F86" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G86" s="7" t="s">
-        <v>107</v>
+      <c r="G86" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H86" s="5">
-        <v>0.48541666666666666</v>
+        <v>0.31805555555555554</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="9">
-        <v>2052016</v>
+      <c r="A87" s="7">
+        <v>26052016</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>25</v>
@@ -2866,22 +2885,24 @@
         <v>101</v>
       </c>
       <c r="D87" s="1">
-        <v>3</v>
-      </c>
-      <c r="E87" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F87" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G87" s="7" t="s">
-        <v>108</v>
+      <c r="G87" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H87" s="5">
-        <v>0.77500000000000002</v>
+        <v>0.77708333333333324</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="9">
-        <v>2052016</v>
+      <c r="A88" s="7">
+        <v>26052016</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>25</v>
@@ -2890,22 +2911,22 @@
         <v>101</v>
       </c>
       <c r="D88" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G88" s="7" t="s">
-        <v>106</v>
+      <c r="G88" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H88" s="5">
-        <v>0.13194444444444445</v>
+        <v>0.12847222222222224</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="9">
-        <v>2052016</v>
+      <c r="A89" s="7">
+        <v>26052016</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>26</v>
@@ -2914,22 +2935,22 @@
         <v>101</v>
       </c>
       <c r="D89" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G89" s="7" t="s">
-        <v>109</v>
+      <c r="G89" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H89" s="5">
-        <v>0.4861111111111111</v>
+        <v>0.31875000000000003</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="9">
-        <v>2052016</v>
+      <c r="A90" s="7">
+        <v>26052016</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>26</v>
@@ -2938,22 +2959,24 @@
         <v>101</v>
       </c>
       <c r="D90" s="1">
-        <v>3</v>
-      </c>
-      <c r="E90" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F90" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G90" s="7" t="s">
-        <v>108</v>
+      <c r="G90" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H90" s="5">
-        <v>0.77569444444444446</v>
+        <v>0.77847222222222223</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="9">
-        <v>2052016</v>
+      <c r="A91" s="7">
+        <v>26052016</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>26</v>
@@ -2968,16 +2991,16 @@
       <c r="F91" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G91" s="7" t="s">
-        <v>106</v>
+      <c r="G91" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H91" s="5">
-        <v>0.13333333333333333</v>
+        <v>0.13194444444444445</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="9">
-        <v>2052016</v>
+      <c r="A92" s="7">
+        <v>26052016</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>27</v>
@@ -2988,20 +3011,22 @@
       <c r="D92" s="1">
         <v>3</v>
       </c>
-      <c r="E92" s="1"/>
+      <c r="E92" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="F92" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G92" s="7" t="s">
-        <v>107</v>
+      <c r="G92" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H92" s="5">
-        <v>0.48680555555555555</v>
+        <v>0.31944444444444448</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="9">
-        <v>2052016</v>
+      <c r="A93" s="7">
+        <v>26052016</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>27</v>
@@ -3012,20 +3037,22 @@
       <c r="D93" s="1">
         <v>3</v>
       </c>
-      <c r="E93" s="1"/>
+      <c r="E93" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="F93" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G93" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H93" s="5">
-        <v>0.77708333333333324</v>
+      <c r="G93" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H93" s="9">
+        <v>0.77986111111111101</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="9">
-        <v>2052016</v>
+      <c r="A94" s="7">
+        <v>26052016</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>27</v>
@@ -3040,16 +3067,16 @@
       <c r="F94" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G94" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H94" s="5">
-        <v>0.13541666666666666</v>
+      <c r="G94" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H94" s="9">
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="9">
-        <v>2052016</v>
+      <c r="A95" s="7">
+        <v>26052016</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>28</v>
@@ -3058,22 +3085,22 @@
         <v>101</v>
       </c>
       <c r="D95" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G95" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H95" s="5">
-        <v>0.48749999999999999</v>
+      <c r="G95" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H95" s="9">
+        <v>0.32013888888888892</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="9">
-        <v>2052016</v>
+      <c r="A96" s="7">
+        <v>26052016</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>28</v>
@@ -3082,22 +3109,22 @@
         <v>101</v>
       </c>
       <c r="D96" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G96" s="7" t="s">
-        <v>108</v>
+      <c r="G96" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H96" s="5">
-        <v>0.77777777777777779</v>
+        <v>0.78055555555555556</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="9">
-        <v>2052016</v>
+      <c r="A97" s="7">
+        <v>26052016</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>28</v>
@@ -3112,16 +3139,16 @@
       <c r="F97" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G97" s="7" t="s">
-        <v>106</v>
+      <c r="G97" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H97" s="5">
-        <v>0.1361111111111111</v>
+        <v>0.13541666666666666</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="9">
-        <v>2052016</v>
+      <c r="A98" s="7">
+        <v>26052016</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>29</v>
@@ -3136,16 +3163,16 @@
       <c r="F98" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G98" s="7" t="s">
-        <v>107</v>
+      <c r="G98" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H98" s="5">
-        <v>0.49652777777777773</v>
+        <v>0.33055555555555555</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="9">
-        <v>2052016</v>
+      <c r="A99" s="7">
+        <v>26052016</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>29</v>
@@ -3160,16 +3187,16 @@
       <c r="F99" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G99" s="7" t="s">
-        <v>108</v>
+      <c r="G99" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H99" s="5">
-        <v>0.78541666666666676</v>
+        <v>0.78194444444444444</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="9">
-        <v>2052016</v>
+      <c r="A100" s="7">
+        <v>26052016</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>29</v>
@@ -3184,16 +3211,16 @@
       <c r="F100" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G100" s="7" t="s">
-        <v>106</v>
+      <c r="G100" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H100" s="5">
         <v>0.13749999999999998</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="9">
-        <v>2052016</v>
+      <c r="A101" s="7">
+        <v>26052016</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>30</v>
@@ -3202,22 +3229,24 @@
         <v>101</v>
       </c>
       <c r="D101" s="1">
-        <v>4</v>
-      </c>
-      <c r="E101" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F101" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G101" s="7" t="s">
-        <v>109</v>
+      <c r="G101" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H101" s="5">
-        <v>0.49722222222222223</v>
+        <v>0.33055555555555555</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="9">
-        <v>2052016</v>
+      <c r="A102" s="7">
+        <v>26052016</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>30</v>
@@ -3232,16 +3261,16 @@
       <c r="F102" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G102" s="7" t="s">
-        <v>108</v>
+      <c r="G102" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H102" s="5">
-        <v>0.78611111111111109</v>
+        <v>0.78263888888888899</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="9">
-        <v>2052016</v>
+      <c r="A103" s="7">
+        <v>26052016</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>30</v>
@@ -3250,22 +3279,22 @@
         <v>101</v>
       </c>
       <c r="D103" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G103" s="7" t="s">
-        <v>106</v>
+      <c r="G103" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H103" s="5">
         <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="9">
-        <v>2052016</v>
+      <c r="A104" s="7">
+        <v>26052016</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>31</v>
@@ -3274,22 +3303,24 @@
         <v>101</v>
       </c>
       <c r="D104" s="1">
-        <v>3</v>
-      </c>
-      <c r="E104" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="F104" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G104" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H104" s="8">
-        <v>0.49791666666666662</v>
+      <c r="G104" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H104" s="9">
+        <v>0.32847222222222222</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="9">
-        <v>2052016</v>
+      <c r="A105" s="7">
+        <v>26052016</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>31</v>
@@ -3298,22 +3329,24 @@
         <v>101</v>
       </c>
       <c r="D105" s="1">
-        <v>3</v>
-      </c>
-      <c r="E105" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="F105" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G105" s="7" t="s">
-        <v>108</v>
+      <c r="G105" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H105" s="5">
-        <v>0.78749999999999998</v>
+        <v>0.78402777777777777</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="9">
-        <v>2052016</v>
+      <c r="A106" s="7">
+        <v>26052016</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>31</v>
@@ -3328,88 +3361,90 @@
       <c r="F106" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G106" s="7" t="s">
-        <v>106</v>
+      <c r="G106" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H106" s="5">
-        <v>0.14097222222222222</v>
+        <v>0.13958333333333334</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="9">
-        <v>2052016</v>
+      <c r="A107" s="7">
+        <v>26052016</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D107" s="1">
+        <v>3</v>
+      </c>
+      <c r="E107" s="1"/>
       <c r="F107" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G107" s="7" t="s">
-        <v>107</v>
+      <c r="G107" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H107" s="5">
-        <v>0.49861111111111112</v>
+        <v>0.32916666666666666</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="9">
-        <v>2052016</v>
+      <c r="A108" s="7">
+        <v>26052016</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D108" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="D108" s="1">
+        <v>3</v>
+      </c>
       <c r="E108" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G108" s="7" t="s">
-        <v>108</v>
+      <c r="G108" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H108" s="5">
-        <v>0.78819444444444453</v>
+        <v>0.78541666666666676</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="9">
-        <v>2052016</v>
+      <c r="A109" s="7">
+        <v>26052016</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D109" s="1">
+        <v>4</v>
+      </c>
+      <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G109" s="7" t="s">
-        <v>106</v>
+      <c r="G109" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H109" s="5">
-        <v>0.15277777777777776</v>
+        <v>0.14305555555555557</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="9">
-        <v>2052016</v>
+      <c r="A110" s="7">
+        <v>26052016</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>33</v>
@@ -3418,22 +3453,22 @@
         <v>101</v>
       </c>
       <c r="D110" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G110" s="7" t="s">
-        <v>107</v>
+      <c r="G110" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H110" s="5">
-        <v>0.48888888888888887</v>
+        <v>0.32222222222222224</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="9">
-        <v>2052016</v>
+      <c r="A111" s="7">
+        <v>26052016</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>33</v>
@@ -3442,22 +3477,22 @@
         <v>101</v>
       </c>
       <c r="D111" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G111" s="7" t="s">
-        <v>108</v>
+      <c r="G111" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H111" s="5">
-        <v>0.77916666666666667</v>
+        <v>0.78749999999999998</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="9">
-        <v>2052016</v>
+      <c r="A112" s="7">
+        <v>26052016</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>33</v>
@@ -3472,17 +3507,17 @@
       <c r="F112" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G112" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H112" s="8">
-        <v>0.15486111111111112</v>
+      <c r="G112" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H112" s="9">
+        <v>0.1451388888888889</v>
       </c>
       <c r="I112" s="10"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="9">
-        <v>2052016</v>
+      <c r="A113" s="7">
+        <v>26052016</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>34</v>
@@ -3493,20 +3528,22 @@
       <c r="D113" s="1">
         <v>3</v>
       </c>
-      <c r="E113" s="1"/>
+      <c r="E113" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F113" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G113" s="7" t="s">
-        <v>109</v>
+      <c r="G113" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H113" s="6">
-        <v>0.48958333333333331</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="9">
-        <v>2052016</v>
+      <c r="A114" s="7">
+        <v>26052016</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>34</v>
@@ -3517,20 +3554,22 @@
       <c r="D114" s="1">
         <v>3</v>
       </c>
-      <c r="E114" s="1"/>
+      <c r="E114" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F114" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G114" s="7" t="s">
-        <v>108</v>
+      <c r="G114" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H114" s="5">
-        <v>0.77986111111111101</v>
+        <v>0.78819444444444453</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="9">
-        <v>2052016</v>
+      <c r="A115" s="7">
+        <v>26052016</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>34</v>
@@ -3545,16 +3584,16 @@
       <c r="F115" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G115" s="7" t="s">
-        <v>106</v>
+      <c r="G115" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H115" s="5">
-        <v>0.15625</v>
+        <v>0.15277777777777776</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="9">
-        <v>2052016</v>
+      <c r="A116" s="7">
+        <v>26052016</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>35</v>
@@ -3565,20 +3604,22 @@
       <c r="D116" s="1">
         <v>3</v>
       </c>
-      <c r="E116" s="1"/>
+      <c r="E116" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F116" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G116" s="7" t="s">
-        <v>107</v>
+      <c r="G116" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H116" s="6">
-        <v>0.49027777777777781</v>
+        <v>0.32361111111111113</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="9">
-        <v>2052016</v>
+      <c r="A117" s="7">
+        <v>26052016</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>35</v>
@@ -3587,22 +3628,24 @@
         <v>101</v>
       </c>
       <c r="D117" s="1">
-        <v>3</v>
-      </c>
-      <c r="E117" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F117" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G117" s="7" t="s">
-        <v>108</v>
+      <c r="G117" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H117" s="5">
-        <v>0.78055555555555556</v>
+        <v>0.78888888888888886</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="9">
-        <v>2052016</v>
+      <c r="A118" s="7">
+        <v>26052016</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>35</v>
@@ -3611,22 +3654,22 @@
         <v>101</v>
       </c>
       <c r="D118" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G118" s="7" t="s">
-        <v>106</v>
+      <c r="G118" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H118" s="5">
-        <v>0.15972222222222224</v>
+        <v>0.15416666666666667</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="9">
-        <v>2052016</v>
+      <c r="A119" s="7">
+        <v>26052016</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>36</v>
@@ -3641,16 +3684,16 @@
       <c r="F119" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G119" s="7" t="s">
-        <v>107</v>
+      <c r="G119" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H119" s="5">
-        <v>0.49305555555555558</v>
+        <v>0.32500000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="9">
-        <v>2052016</v>
+      <c r="A120" s="7">
+        <v>26052016</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>36</v>
@@ -3665,16 +3708,16 @@
       <c r="F120" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G120" s="7" t="s">
-        <v>108</v>
+      <c r="G120" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H120" s="5">
-        <v>0.78194444444444444</v>
+        <v>0.79027777777777775</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="9">
-        <v>2052016</v>
+      <c r="A121" s="7">
+        <v>26052016</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>36</v>
@@ -3683,22 +3726,22 @@
         <v>101</v>
       </c>
       <c r="D121" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G121" s="7" t="s">
-        <v>106</v>
+      <c r="G121" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H121" s="5">
-        <v>0.16111111111111112</v>
+        <v>0.15555555555555556</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="9">
-        <v>2052016</v>
+      <c r="A122" s="7">
+        <v>26052016</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>37</v>
@@ -3713,16 +3756,16 @@
       <c r="F122" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G122" s="7" t="s">
-        <v>107</v>
+      <c r="G122" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H122" s="5">
-        <v>0.49374999999999997</v>
+        <v>0.32222222222222224</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="9">
-        <v>2052016</v>
+      <c r="A123" s="7">
+        <v>26052016</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>37</v>
@@ -3737,16 +3780,16 @@
       <c r="F123" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G123" s="7" t="s">
-        <v>108</v>
+      <c r="G123" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H123" s="5">
-        <v>0.78263888888888899</v>
+        <v>0.7909722222222223</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="9">
-        <v>2052016</v>
+      <c r="A124" s="7">
+        <v>26052016</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>37</v>
@@ -3761,16 +3804,16 @@
       <c r="F124" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G124" s="7" t="s">
-        <v>106</v>
+      <c r="G124" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H124" s="5">
-        <v>0.16250000000000001</v>
+        <v>0.15694444444444444</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="9">
-        <v>2052016</v>
+      <c r="A125" s="7">
+        <v>26052016</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>38</v>
@@ -3779,22 +3822,22 @@
         <v>101</v>
       </c>
       <c r="D125" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G125" s="7" t="s">
-        <v>109</v>
+      <c r="G125" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H125" s="5">
-        <v>0.49444444444444446</v>
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="9">
-        <v>2052016</v>
+      <c r="A126" s="7">
+        <v>26052016</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>38</v>
@@ -3803,22 +3846,22 @@
         <v>101</v>
       </c>
       <c r="D126" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G126" s="7" t="s">
-        <v>108</v>
+      <c r="G126" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H126" s="5">
-        <v>0.78333333333333333</v>
+        <v>0.79236111111111107</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="9">
-        <v>2052016</v>
+      <c r="A127" s="7">
+        <v>26052016</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>38</v>
@@ -3833,16 +3876,16 @@
       <c r="F127" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G127" s="7" t="s">
-        <v>106</v>
+      <c r="G127" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H127" s="5">
-        <v>0.16527777777777777</v>
+        <v>0.15833333333333333</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="9">
-        <v>2052016</v>
+      <c r="A128" s="7">
+        <v>26052016</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>39</v>
@@ -3859,16 +3902,16 @@
       <c r="F128" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G128" s="7" t="s">
-        <v>107</v>
+      <c r="G128" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H128" s="5">
-        <v>0.5</v>
+        <v>0.32847222222222222</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="9">
-        <v>2052016</v>
+      <c r="A129" s="7">
+        <v>26052016</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>39</v>
@@ -3877,22 +3920,24 @@
         <v>101</v>
       </c>
       <c r="D129" s="1">
-        <v>3</v>
-      </c>
-      <c r="E129" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F129" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G129" s="7" t="s">
-        <v>108</v>
+      <c r="G129" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H129" s="5">
-        <v>0.7895833333333333</v>
+        <v>0.79375000000000007</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="9">
-        <v>2052016</v>
+      <c r="A130" s="7">
+        <v>26052016</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>39</v>
@@ -3901,22 +3946,22 @@
         <v>101</v>
       </c>
       <c r="D130" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G130" s="7" t="s">
-        <v>106</v>
+      <c r="G130" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H130" s="5">
-        <v>0.16597222222222222</v>
+        <v>0.15972222222222224</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="9">
-        <v>2052016</v>
+      <c r="A131" s="7">
+        <v>26052016</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>40</v>
@@ -3933,16 +3978,16 @@
       <c r="F131" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G131" s="7" t="s">
-        <v>107</v>
+      <c r="G131" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H131" s="5">
-        <v>0.50069444444444444</v>
+        <v>0.32916666666666666</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="9">
-        <v>2052016</v>
+      <c r="A132" s="7">
+        <v>26052016</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>40</v>
@@ -3951,22 +3996,24 @@
         <v>101</v>
       </c>
       <c r="D132" s="1">
-        <v>3</v>
-      </c>
-      <c r="E132" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F132" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G132" s="7" t="s">
-        <v>108</v>
+      <c r="G132" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H132" s="5">
-        <v>0.79027777777777775</v>
+        <v>0.7944444444444444</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="9">
-        <v>2052016</v>
+      <c r="A133" s="7">
+        <v>26052016</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>40</v>
@@ -3981,16 +4028,16 @@
       <c r="F133" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G133" s="7" t="s">
-        <v>106</v>
+      <c r="G133" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H133" s="5">
-        <v>0.1673611111111111</v>
+        <v>0.16111111111111112</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="9">
-        <v>2052016</v>
+      <c r="A134" s="7">
+        <v>26052016</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>41</v>
@@ -3999,7 +4046,7 @@
         <v>101</v>
       </c>
       <c r="D134" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>104</v>
@@ -4007,16 +4054,16 @@
       <c r="F134" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G134" s="7" t="s">
-        <v>107</v>
+      <c r="G134" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H134" s="5">
-        <v>0.50138888888888888</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="9">
-        <v>2052016</v>
+      <c r="A135" s="7">
+        <v>26052016</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>41</v>
@@ -4027,20 +4074,22 @@
       <c r="D135" s="1">
         <v>3</v>
       </c>
-      <c r="E135" s="1"/>
+      <c r="E135" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F135" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G135" s="7" t="s">
-        <v>108</v>
+      <c r="G135" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H135" s="5">
-        <v>0.7909722222222223</v>
+        <v>0.79513888888888884</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="9">
-        <v>2052016</v>
+      <c r="A136" s="7">
+        <v>26052016</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>41</v>
@@ -4055,16 +4104,16 @@
       <c r="F136" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G136" s="7" t="s">
-        <v>106</v>
+      <c r="G136" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H136" s="5">
-        <v>0.16874999999999998</v>
+        <v>0.16388888888888889</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="9">
-        <v>2052016</v>
+      <c r="A137" s="7">
+        <v>26052016</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>42</v>
@@ -4081,16 +4130,16 @@
       <c r="F137" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G137" s="7" t="s">
-        <v>109</v>
+      <c r="G137" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H137" s="5">
-        <v>0.50416666666666665</v>
+        <v>0.33194444444444443</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="9">
-        <v>2052016</v>
+      <c r="A138" s="7">
+        <v>26052016</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>42</v>
@@ -4099,22 +4148,24 @@
         <v>101</v>
       </c>
       <c r="D138" s="1">
-        <v>3</v>
-      </c>
-      <c r="E138" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F138" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G138" s="7" t="s">
-        <v>108</v>
+      <c r="G138" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H138" s="5">
-        <v>0.79166666666666663</v>
+        <v>0.79791666666666661</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="9">
-        <v>2052016</v>
+      <c r="A139" s="7">
+        <v>26052016</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>42</v>
@@ -4123,22 +4174,22 @@
         <v>101</v>
       </c>
       <c r="D139" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G139" s="7" t="s">
-        <v>106</v>
+      <c r="G139" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H139" s="5">
-        <v>0.17013888888888887</v>
+        <v>0.16527777777777777</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="9">
-        <v>2052016</v>
+      <c r="A140" s="7">
+        <v>26052016</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>43</v>
@@ -4149,70 +4200,68 @@
       <c r="D140" s="1">
         <v>3</v>
       </c>
-      <c r="E140" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="E140" s="1"/>
       <c r="F140" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G140" s="7" t="s">
-        <v>107</v>
+      <c r="G140" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H140" s="5">
-        <v>0.50347222222222221</v>
+        <v>0.33263888888888887</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="9">
-        <v>2052016</v>
+      <c r="A141" s="7">
+        <v>26052016</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D141" s="1">
-        <v>3</v>
-      </c>
-      <c r="E141" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="F141" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G141" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H141" s="5">
-        <v>0.79236111111111107</v>
+      <c r="G141" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H141" s="9">
+        <v>0.79861111111111116</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="9">
-        <v>2052016</v>
+      <c r="A142" s="7">
+        <v>26052016</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D142" s="1">
-        <v>3</v>
-      </c>
-      <c r="E142" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="F142" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G142" s="7" t="s">
-        <v>106</v>
+      <c r="G142" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H142" s="6">
-        <v>0.17361111111111113</v>
+        <v>0.16805555555555554</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="9">
-        <v>2052016</v>
+      <c r="A143" s="7">
+        <v>26052016</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>44</v>
@@ -4221,24 +4270,22 @@
         <v>101</v>
       </c>
       <c r="D143" s="1">
-        <v>4</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E143" s="1"/>
       <c r="F143" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G143" s="7" t="s">
-        <v>107</v>
+      <c r="G143" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H143" s="5">
-        <v>0.50277777777777777</v>
+        <v>0.33124999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="9">
-        <v>2052016</v>
+      <c r="A144" s="7">
+        <v>26052016</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>44</v>
@@ -4253,16 +4300,16 @@
       <c r="F144" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G144" s="7" t="s">
-        <v>108</v>
+      <c r="G144" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H144" s="5">
-        <v>0.79305555555555562</v>
+        <v>0.7993055555555556</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="9">
-        <v>2052016</v>
+      <c r="A145" s="7">
+        <v>26052016</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>44</v>
@@ -4277,90 +4324,88 @@
       <c r="F145" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G145" s="7" t="s">
-        <v>106</v>
+      <c r="G145" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H145" s="5">
-        <v>0.18055555555555555</v>
+        <v>0.17083333333333331</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="9">
-        <v>2052016</v>
+      <c r="A146" s="7">
+        <v>26052016</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D146" s="1">
-        <v>3</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="D146" s="1"/>
       <c r="E146" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G146" s="7" t="s">
-        <v>107</v>
+      <c r="G146" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H146" s="5">
-        <v>0.50486111111111109</v>
+        <v>0.3347222222222222</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="9">
-        <v>2052016</v>
+      <c r="A147" s="7">
+        <v>26052016</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D147" s="1">
-        <v>3</v>
-      </c>
-      <c r="E147" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="F147" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G147" s="7" t="s">
-        <v>108</v>
+      <c r="G147" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H147" s="5">
-        <v>0.7944444444444444</v>
+        <v>0.80069444444444438</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="9">
-        <v>2052016</v>
+      <c r="A148" s="7">
+        <v>26052016</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D148" s="1">
-        <v>4</v>
-      </c>
-      <c r="E148" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="F148" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G148" s="7" t="s">
-        <v>106</v>
+      <c r="G148" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H148" s="5">
-        <v>0.18194444444444444</v>
+        <v>0.17222222222222225</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="9">
-        <v>2052016</v>
+      <c r="A149" s="7">
+        <v>26052016</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>46</v>
@@ -4369,7 +4414,7 @@
         <v>101</v>
       </c>
       <c r="D149" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>104</v>
@@ -4377,16 +4422,16 @@
       <c r="F149" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G149" s="7" t="s">
-        <v>109</v>
+      <c r="G149" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H149" s="5">
-        <v>0.50555555555555554</v>
+        <v>0.3354166666666667</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="9">
-        <v>2052016</v>
+      <c r="A150" s="7">
+        <v>26052016</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>46</v>
@@ -4395,22 +4440,24 @@
         <v>101</v>
       </c>
       <c r="D150" s="1">
-        <v>4</v>
-      </c>
-      <c r="E150" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F150" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G150" s="7" t="s">
-        <v>108</v>
+      <c r="G150" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H150" s="5">
-        <v>0.79513888888888884</v>
+        <v>0.80138888888888893</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="9">
-        <v>2052016</v>
+      <c r="A151" s="7">
+        <v>26052016</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>46</v>
@@ -4425,16 +4472,16 @@
       <c r="F151" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G151" s="7" t="s">
-        <v>106</v>
+      <c r="G151" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H151" s="5">
-        <v>0.18472222222222223</v>
+        <v>0.17361111111111113</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="9">
-        <v>2052016</v>
+      <c r="A152" s="7">
+        <v>26052016</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>47</v>
@@ -4443,7 +4490,7 @@
         <v>101</v>
       </c>
       <c r="D152" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>104</v>
@@ -4451,16 +4498,16 @@
       <c r="F152" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G152" s="7" t="s">
-        <v>107</v>
+      <c r="G152" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H152" s="5">
-        <v>0.50624999999999998</v>
+        <v>0.33611111111111108</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="9">
-        <v>2052016</v>
+      <c r="A153" s="7">
+        <v>26052016</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>47</v>
@@ -4471,20 +4518,22 @@
       <c r="D153" s="1">
         <v>4</v>
       </c>
-      <c r="E153" s="1"/>
+      <c r="E153" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F153" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G153" s="7" t="s">
-        <v>108</v>
+      <c r="G153" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H153" s="5">
-        <v>0.79583333333333339</v>
+        <v>0.80208333333333337</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="9">
-        <v>2052016</v>
+      <c r="A154" s="7">
+        <v>26052016</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>47</v>
@@ -4493,22 +4542,22 @@
         <v>101</v>
       </c>
       <c r="D154" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E154" s="1"/>
       <c r="F154" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G154" s="7" t="s">
-        <v>106</v>
+      <c r="G154" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H154" s="5">
-        <v>0.18680555555555556</v>
+        <v>0.18055555555555555</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="9">
-        <v>2052016</v>
+      <c r="A155" s="7">
+        <v>26052016</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>48</v>
@@ -4523,16 +4572,16 @@
       <c r="F155" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G155" s="7" t="s">
-        <v>107</v>
+      <c r="G155" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H155" s="5">
-        <v>0.50763888888888886</v>
+        <v>0.33749999999999997</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="9">
-        <v>2052016</v>
+      <c r="A156" s="7">
+        <v>26052016</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>48</v>
@@ -4541,22 +4590,22 @@
         <v>101</v>
       </c>
       <c r="D156" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G156" s="7" t="s">
-        <v>108</v>
+      <c r="G156" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H156" s="5">
-        <v>0.79722222222222217</v>
+        <v>0.8041666666666667</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="9">
-        <v>2052016</v>
+      <c r="A157" s="7">
+        <v>26052016</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>48</v>
@@ -4571,16 +4620,16 @@
       <c r="F157" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G157" s="7" t="s">
-        <v>106</v>
+      <c r="G157" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H157" s="5">
-        <v>0.18888888888888888</v>
+        <v>0.18194444444444444</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="9">
-        <v>2052016</v>
+      <c r="A158" s="7">
+        <v>26052016</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>49</v>
@@ -4595,16 +4644,16 @@
       <c r="F158" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G158" s="7" t="s">
-        <v>107</v>
+      <c r="G158" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H158" s="5">
-        <v>0.5083333333333333</v>
+        <v>0.33819444444444446</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="9">
-        <v>2052016</v>
+      <c r="A159" s="7">
+        <v>26052016</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>49</v>
@@ -4613,22 +4662,22 @@
         <v>101</v>
       </c>
       <c r="D159" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G159" s="7" t="s">
-        <v>108</v>
+      <c r="G159" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H159" s="5">
-        <v>0.79791666666666661</v>
+        <v>0.80486111111111114</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="9">
-        <v>2052016</v>
+      <c r="A160" s="7">
+        <v>26052016</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>49</v>
@@ -4643,16 +4692,16 @@
       <c r="F160" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G160" s="7" t="s">
-        <v>106</v>
+      <c r="G160" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H160" s="5">
-        <v>0.19097222222222221</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="9">
-        <v>2052016</v>
+        <v>0.18472222222222223</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="7">
+        <v>26052016</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>50</v>
@@ -4667,16 +4716,16 @@
       <c r="F161" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G161" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H161" s="8">
-        <v>0.50902777777777775</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="9">
-        <v>2052016</v>
+      <c r="G161" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H161" s="9">
+        <v>0.33888888888888885</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="7">
+        <v>26052016</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>50</v>
@@ -4685,22 +4734,22 @@
         <v>101</v>
       </c>
       <c r="D162" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G162" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H162" s="8">
-        <v>0.79861111111111116</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="9">
-        <v>2052016</v>
+      <c r="G162" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H162" s="9">
+        <v>0.59722222222222221</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="7">
+        <v>26052016</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>50</v>
@@ -4709,23 +4758,22 @@
         <v>101</v>
       </c>
       <c r="D163" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E163" s="1"/>
       <c r="F163" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G163" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H163" s="8">
-        <v>0.19375000000000001</v>
-      </c>
-      <c r="I163" s="10"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="9">
-        <v>2052016</v>
+      <c r="G163" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H163" s="9">
+        <v>0.18611111111111112</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="7">
+        <v>26052016</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>51</v>
@@ -4734,22 +4782,22 @@
         <v>101</v>
       </c>
       <c r="D164" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E164" s="1"/>
       <c r="F164" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G164" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H164" s="8">
-        <v>0.51041666666666663</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="9">
-        <v>2052016</v>
+      <c r="G164" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H164" s="9">
+        <v>0.34097222222222223</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="7">
+        <v>26052016</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>51</v>
@@ -4764,16 +4812,16 @@
       <c r="F165" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G165" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H165" s="8">
-        <v>0.79999999999999993</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="9">
-        <v>2052016</v>
+      <c r="G165" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H165" s="9">
+        <v>0.80694444444444446</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="7">
+        <v>26052016</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>51</v>
@@ -4788,16 +4836,16 @@
       <c r="F166" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G166" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H166" s="8">
-        <v>0.20138888888888887</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="9">
-        <v>2052016</v>
+      <c r="G166" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H166" s="9">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="7">
+        <v>26052016</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>52</v>
@@ -4806,22 +4854,22 @@
         <v>101</v>
       </c>
       <c r="D167" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E167" s="1"/>
       <c r="F167" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G167" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H167" s="8">
-        <v>0.51041666666666663</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="9">
-        <v>2052016</v>
+      <c r="G167" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H167" s="9">
+        <v>0.34166666666666662</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="7">
+        <v>26052016</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>52</v>
@@ -4836,16 +4884,16 @@
       <c r="F168" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G168" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H168" s="8">
-        <v>0.80069444444444438</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="9">
-        <v>2052016</v>
+      <c r="G168" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H168" s="9">
+        <v>0.80694444444444446</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="7">
+        <v>26052016</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>52</v>
@@ -4860,16 +4908,16 @@
       <c r="F169" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G169" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H169" s="8">
-        <v>0.20277777777777781</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="9">
-        <v>2052016</v>
+      <c r="G169" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H169" s="9">
+        <v>0.18888888888888888</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="7">
+        <v>26052016</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>53</v>
@@ -4878,22 +4926,22 @@
         <v>101</v>
       </c>
       <c r="D170" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E170" s="1"/>
       <c r="F170" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G170" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H170" s="8">
-        <v>0.51180555555555551</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="9">
-        <v>2052016</v>
+      <c r="G170" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H170" s="9">
+        <v>0.3430555555555555</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="7">
+        <v>26052016</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>53</v>
@@ -4908,16 +4956,16 @@
       <c r="F171" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G171" s="7" t="s">
-        <v>108</v>
+      <c r="G171" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H171" s="5">
-        <v>0.80208333333333337</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="9">
-        <v>2052016</v>
+        <v>0.80763888888888891</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="7">
+        <v>26052016</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>53</v>
@@ -4932,16 +4980,16 @@
       <c r="F172" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G172" s="7" t="s">
-        <v>106</v>
+      <c r="G172" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H172" s="5">
-        <v>0.20486111111111113</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="9">
-        <v>2052016</v>
+        <v>0.19444444444444445</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="7">
+        <v>26052016</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>54</v>
@@ -4956,16 +5004,16 @@
       <c r="F173" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G173" s="7" t="s">
-        <v>109</v>
+      <c r="G173" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H173" s="5">
-        <v>0.51180555555555551</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="9">
-        <v>2052016</v>
+        <v>0.3430555555555555</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="7">
+        <v>26052016</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>54</v>
@@ -4980,16 +5028,16 @@
       <c r="F174" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G174" s="7" t="s">
-        <v>108</v>
+      <c r="G174" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H174" s="5">
-        <v>0.8027777777777777</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="9">
-        <v>2052016</v>
+        <v>0.80763888888888891</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="7">
+        <v>26052016</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>54</v>
@@ -4998,22 +5046,22 @@
         <v>101</v>
       </c>
       <c r="D175" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E175" s="1"/>
       <c r="F175" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G175" s="7" t="s">
-        <v>106</v>
+      <c r="G175" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H175" s="5">
-        <v>0.20694444444444446</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="9">
-        <v>2052016</v>
+        <v>0.19583333333333333</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="7">
+        <v>26052016</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>55</v>
@@ -5028,16 +5076,16 @@
       <c r="F176" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G176" s="7" t="s">
-        <v>107</v>
+      <c r="G176" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H176" s="5">
-        <v>0.51250000000000007</v>
+        <v>0.34513888888888888</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="9">
-        <v>2052016</v>
+      <c r="A177" s="7">
+        <v>26052016</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>55</v>
@@ -5052,16 +5100,16 @@
       <c r="F177" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G177" s="7" t="s">
-        <v>108</v>
+      <c r="G177" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H177" s="5">
-        <v>0.8041666666666667</v>
+        <v>0.80902777777777779</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="9">
-        <v>2052016</v>
+      <c r="A178" s="7">
+        <v>26052016</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>55</v>
@@ -5076,88 +5124,88 @@
       <c r="F178" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G178" s="7" t="s">
-        <v>106</v>
+      <c r="G178" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H178" s="5">
-        <v>0.20833333333333334</v>
+        <v>0.1986111111111111</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="9">
-        <v>2052016</v>
+      <c r="A179" s="7">
+        <v>26052016</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D179" s="1">
-        <v>4</v>
-      </c>
-      <c r="E179" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="F179" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G179" s="7" t="s">
-        <v>107</v>
+      <c r="G179" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H179" s="5">
-        <v>0.5131944444444444</v>
+        <v>0.34513888888888888</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="9">
-        <v>2052016</v>
+      <c r="A180" s="7">
+        <v>26052016</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D180" s="1">
-        <v>4</v>
-      </c>
-      <c r="E180" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="F180" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G180" s="7" t="s">
-        <v>108</v>
+      <c r="G180" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H180" s="5">
-        <v>0.80486111111111114</v>
+        <v>0.80972222222222223</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="9">
-        <v>2052016</v>
+      <c r="A181" s="7">
+        <v>26052016</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D181" s="1">
-        <v>4</v>
-      </c>
-      <c r="E181" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="F181" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G181" s="7" t="s">
-        <v>106</v>
+      <c r="G181" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H181" s="5">
-        <v>0.20972222222222223</v>
+        <v>0.19999999999999998</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="9">
-        <v>2052016</v>
+      <c r="A182" s="7">
+        <v>26052016</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>57</v>
@@ -5166,22 +5214,24 @@
         <v>101</v>
       </c>
       <c r="D182" s="1">
-        <v>4</v>
-      </c>
-      <c r="E182" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F182" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G182" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H182" s="8">
-        <v>0.51388888888888895</v>
+      <c r="G182" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H182" s="9">
+        <v>0.34583333333333338</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="9">
-        <v>2052016</v>
+      <c r="A183" s="7">
+        <v>26052016</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>57</v>
@@ -5190,22 +5240,24 @@
         <v>101</v>
       </c>
       <c r="D183" s="1">
-        <v>4</v>
-      </c>
-      <c r="E183" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F183" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G183" s="7" t="s">
-        <v>108</v>
+      <c r="G183" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H183" s="5">
-        <v>0.80555555555555547</v>
+        <v>0.81041666666666667</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="9">
-        <v>2052016</v>
+      <c r="A184" s="7">
+        <v>26052016</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>57</v>
@@ -5214,22 +5266,22 @@
         <v>101</v>
       </c>
       <c r="D184" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E184" s="1"/>
       <c r="F184" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G184" s="7" t="s">
-        <v>106</v>
+      <c r="G184" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H184" s="5">
-        <v>0.21111111111111111</v>
+        <v>0.20138888888888887</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="9">
-        <v>2052016</v>
+      <c r="A185" s="7">
+        <v>26052016</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>58</v>
@@ -5244,16 +5296,16 @@
       <c r="F185" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G185" s="7" t="s">
-        <v>109</v>
+      <c r="G185" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H185" s="5">
-        <v>0.51527777777777783</v>
+        <v>0.34791666666666665</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="9">
-        <v>2052016</v>
+      <c r="A186" s="7">
+        <v>26052016</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>58</v>
@@ -5268,16 +5320,16 @@
       <c r="F186" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G186" s="7" t="s">
-        <v>108</v>
+      <c r="G186" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H186" s="5">
-        <v>0.80694444444444446</v>
+        <v>0.81180555555555556</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="9">
-        <v>2052016</v>
+      <c r="A187" s="7">
+        <v>26052016</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>58</v>
@@ -5292,16 +5344,16 @@
       <c r="F187" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G187" s="7" t="s">
-        <v>106</v>
+      <c r="G187" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H187" s="5">
-        <v>0.21249999999999999</v>
+        <v>0.20138888888888887</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="9">
-        <v>2052016</v>
+      <c r="A188" s="7">
+        <v>26052016</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>59</v>
@@ -5316,16 +5368,16 @@
       <c r="F188" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G188" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H188" s="5">
-        <v>0.51597222222222217</v>
+      <c r="G188" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H188" s="9">
+        <v>0.34861111111111115</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="9">
-        <v>2052016</v>
+      <c r="A189" s="7">
+        <v>26052016</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>59</v>
@@ -5334,22 +5386,22 @@
         <v>101</v>
       </c>
       <c r="D189" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E189" s="1"/>
       <c r="F189" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G189" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H189" s="5">
-        <v>0.80763888888888891</v>
+      <c r="G189" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H189" s="9">
+        <v>0.81319444444444444</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="9">
-        <v>2052016</v>
+      <c r="A190" s="7">
+        <v>26052016</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>59</v>
@@ -5364,16 +5416,16 @@
       <c r="F190" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G190" s="7" t="s">
-        <v>106</v>
+      <c r="G190" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H190" s="5">
-        <v>0.21527777777777779</v>
+        <v>0.20416666666666669</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="9">
-        <v>2052016</v>
+      <c r="A191" s="7">
+        <v>26052016</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>60</v>
@@ -5382,22 +5434,22 @@
         <v>101</v>
       </c>
       <c r="D191" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E191" s="1"/>
       <c r="F191" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G191" s="7" t="s">
-        <v>107</v>
+      <c r="G191" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H191" s="5">
-        <v>0.51666666666666672</v>
+        <v>0.34861111111111115</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="9">
-        <v>2052016</v>
+      <c r="A192" s="7">
+        <v>26052016</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>60</v>
@@ -5406,22 +5458,22 @@
         <v>101</v>
       </c>
       <c r="D192" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E192" s="1"/>
       <c r="F192" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G192" s="7" t="s">
-        <v>108</v>
+      <c r="G192" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H192" s="5">
-        <v>0.80833333333333324</v>
+        <v>0.81388888888888899</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="9">
-        <v>2052016</v>
+      <c r="A193" s="7">
+        <v>26052016</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>60</v>
@@ -5430,22 +5482,22 @@
         <v>101</v>
       </c>
       <c r="D193" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E193" s="1"/>
       <c r="F193" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G193" s="7" t="s">
-        <v>106</v>
+      <c r="G193" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H193" s="5">
-        <v>0.22222222222222221</v>
+        <v>0.20694444444444446</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="9">
-        <v>2052016</v>
+      <c r="A194" s="7">
+        <v>26052016</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>61</v>
@@ -5454,22 +5506,22 @@
         <v>101</v>
       </c>
       <c r="D194" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E194" s="1"/>
       <c r="F194" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G194" s="7" t="s">
-        <v>107</v>
+      <c r="G194" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H194" s="5">
-        <v>0.5180555555555556</v>
+        <v>0.35069444444444442</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="9">
-        <v>2052016</v>
+      <c r="A195" s="7">
+        <v>26052016</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>61</v>
@@ -5484,16 +5536,16 @@
       <c r="F195" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G195" s="7" t="s">
-        <v>108</v>
+      <c r="G195" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H195" s="5">
-        <v>0.80972222222222223</v>
+        <v>0.81527777777777777</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="9">
-        <v>2052016</v>
+      <c r="A196" s="7">
+        <v>26052016</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>61</v>
@@ -5508,16 +5560,16 @@
       <c r="F196" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G196" s="7" t="s">
-        <v>106</v>
+      <c r="G196" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H196" s="5">
-        <v>0.22361111111111109</v>
+        <v>0.2076388888888889</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="9">
-        <v>2052016</v>
+      <c r="A197" s="7">
+        <v>26052016</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>62</v>
@@ -5526,22 +5578,22 @@
         <v>101</v>
       </c>
       <c r="D197" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E197" s="1"/>
       <c r="F197" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G197" s="7" t="s">
-        <v>109</v>
+      <c r="G197" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H197" s="5">
-        <v>0.5180555555555556</v>
+        <v>0.35069444444444442</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="9">
-        <v>2052016</v>
+      <c r="A198" s="7">
+        <v>26052016</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>62</v>
@@ -5550,22 +5602,22 @@
         <v>101</v>
       </c>
       <c r="D198" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E198" s="1"/>
       <c r="F198" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G198" s="7" t="s">
-        <v>108</v>
+      <c r="G198" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H198" s="5">
-        <v>0.81041666666666667</v>
+        <v>0.80833333333333324</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="9">
-        <v>2052016</v>
+      <c r="A199" s="7">
+        <v>26052016</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>62</v>
@@ -5580,16 +5632,16 @@
       <c r="F199" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G199" s="7" t="s">
-        <v>106</v>
+      <c r="G199" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H199" s="5">
-        <v>0.22430555555555556</v>
+        <v>0.20972222222222223</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="9">
-        <v>2052016</v>
+      <c r="A200" s="7">
+        <v>26052016</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>63</v>
@@ -5604,16 +5656,16 @@
       <c r="F200" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G200" s="7" t="s">
-        <v>107</v>
+      <c r="G200" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H200" s="5">
-        <v>0.51874999999999993</v>
+        <v>0.3520833333333333</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="9">
-        <v>2052016</v>
+      <c r="A201" s="7">
+        <v>26052016</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>63</v>
@@ -5622,22 +5674,22 @@
         <v>101</v>
       </c>
       <c r="D201" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E201" s="1"/>
       <c r="F201" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G201" s="7" t="s">
-        <v>108</v>
+      <c r="G201" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H201" s="5">
-        <v>0.81180555555555556</v>
+        <v>0.81597222222222221</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="9">
-        <v>2052016</v>
+      <c r="A202" s="7">
+        <v>26052016</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>63</v>
@@ -5652,16 +5704,16 @@
       <c r="F202" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G202" s="7" t="s">
-        <v>106</v>
+      <c r="G202" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H202" s="5">
-        <v>0.22638888888888889</v>
+        <v>0.21111111111111111</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="9">
-        <v>2052016</v>
+      <c r="A203" s="7">
+        <v>26052016</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>64</v>
@@ -5676,16 +5728,16 @@
       <c r="F203" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G203" s="7" t="s">
-        <v>107</v>
+      <c r="G203" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H203" s="5">
-        <v>0.51874999999999993</v>
+        <v>0.3520833333333333</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="9">
-        <v>2052016</v>
+      <c r="A204" s="7">
+        <v>26052016</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>64</v>
@@ -5700,16 +5752,16 @@
       <c r="F204" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G204" s="7" t="s">
-        <v>108</v>
+      <c r="G204" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H204" s="5">
-        <v>0.8125</v>
+        <v>0.81597222222222221</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="9">
-        <v>2052016</v>
+      <c r="A205" s="7">
+        <v>26052016</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>64</v>
@@ -5724,16 +5776,16 @@
       <c r="F205" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G205" s="7" t="s">
-        <v>106</v>
+      <c r="G205" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H205" s="5">
-        <v>0.22777777777777777</v>
+        <v>0.21249999999999999</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="9">
-        <v>2052016</v>
+      <c r="A206" s="7">
+        <v>26052016</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>65</v>
@@ -5748,88 +5800,88 @@
       <c r="F206" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G206" s="7" t="s">
-        <v>107</v>
+      <c r="G206" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H206" s="5">
-        <v>0.52013888888888882</v>
+        <v>0.35486111111111113</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="9">
-        <v>2052016</v>
+      <c r="A207" s="7">
+        <v>26052016</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D207" s="1">
-        <v>3</v>
-      </c>
-      <c r="E207" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="F207" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G207" s="7" t="s">
-        <v>108</v>
+      <c r="G207" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H207" s="5">
-        <v>0.81388888888888899</v>
+        <v>0.81736111111111109</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" s="9">
-        <v>2052016</v>
+      <c r="A208" s="7">
+        <v>26052016</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D208" s="1">
-        <v>4</v>
-      </c>
-      <c r="E208" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="F208" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G208" s="7" t="s">
-        <v>106</v>
+      <c r="G208" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H208" s="5">
-        <v>0.22847222222222222</v>
+        <v>0.21458333333333335</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A209" s="9">
-        <v>2052016</v>
+      <c r="A209" s="7">
+        <v>26052016</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D209" s="1">
-        <v>3</v>
-      </c>
-      <c r="E209" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="F209" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G209" s="7" t="s">
-        <v>109</v>
+      <c r="G209" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H209" s="5">
-        <v>0.52083333333333337</v>
+        <v>0.35486111111111113</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A210" s="9">
-        <v>2052016</v>
+      <c r="A210" s="7">
+        <v>26052016</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>66</v>
@@ -5844,16 +5896,16 @@
       <c r="F210" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G210" s="7" t="s">
-        <v>108</v>
+      <c r="G210" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H210" s="5">
-        <v>0.81458333333333333</v>
+        <v>0.81805555555555554</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A211" s="9">
-        <v>2052016</v>
+      <c r="A211" s="7">
+        <v>26052016</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>66</v>
@@ -5864,20 +5916,22 @@
       <c r="D211" s="1">
         <v>3</v>
       </c>
-      <c r="E211" s="1"/>
+      <c r="E211" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F211" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G211" s="7" t="s">
-        <v>106</v>
+      <c r="G211" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H211" s="5">
-        <v>0.23124999999999998</v>
+        <v>0.21805555555555556</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A212" s="9">
-        <v>2052016</v>
+      <c r="A212" s="7">
+        <v>26052016</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>67</v>
@@ -5892,16 +5946,16 @@
       <c r="F212" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G212" s="7" t="s">
-        <v>107</v>
+      <c r="G212" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H212" s="5">
-        <v>0.52152777777777781</v>
+        <v>0.35555555555555557</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A213" s="9">
-        <v>2052016</v>
+      <c r="A213" s="7">
+        <v>26052016</v>
       </c>
       <c r="B213" s="11" t="s">
         <v>67</v>
@@ -5912,20 +5966,22 @@
       <c r="D213" s="11">
         <v>3</v>
       </c>
-      <c r="E213" s="11"/>
+      <c r="E213" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="F213" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="G213" s="7" t="s">
-        <v>108</v>
+      <c r="G213" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H213" s="5">
-        <v>0.81527777777777777</v>
+        <v>0.81874999999999998</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A214" s="9">
-        <v>2052016</v>
+      <c r="A214" s="7">
+        <v>26052016</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>67</v>
@@ -5936,21 +5992,23 @@
       <c r="D214" s="1">
         <v>3</v>
       </c>
-      <c r="E214" s="1"/>
+      <c r="E214" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F214" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G214" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H214" s="8">
-        <v>0.23263888888888887</v>
+      <c r="G214" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H214" s="9">
+        <v>0.21944444444444444</v>
       </c>
       <c r="I214" s="10"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A215" s="9">
-        <v>2052016</v>
+      <c r="A215" s="7">
+        <v>26052016</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>68</v>
@@ -5965,16 +6023,16 @@
       <c r="F215" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G215" s="7" t="s">
-        <v>107</v>
+      <c r="G215" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H215" s="5">
-        <v>0.5229166666666667</v>
+        <v>0.35694444444444445</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A216" s="9">
-        <v>2052016</v>
+      <c r="A216" s="7">
+        <v>26052016</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>68</v>
@@ -5989,16 +6047,16 @@
       <c r="F216" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G216" s="7" t="s">
-        <v>108</v>
+      <c r="G216" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H216" s="5">
-        <v>0.81666666666666676</v>
+        <v>0.82013888888888886</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A217" s="9">
-        <v>2052016</v>
+      <c r="A217" s="7">
+        <v>26052016</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>68</v>
@@ -6013,16 +6071,16 @@
       <c r="F217" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G217" s="7" t="s">
-        <v>106</v>
+      <c r="G217" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H217" s="5">
-        <v>0.23333333333333331</v>
+        <v>0.22083333333333333</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" s="9">
-        <v>2052016</v>
+      <c r="A218" s="7">
+        <v>26052016</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>69</v>
@@ -6037,16 +6095,16 @@
       <c r="F218" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G218" s="7" t="s">
-        <v>107</v>
+      <c r="G218" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H218" s="5">
-        <v>0.52361111111111114</v>
+        <v>0.3576388888888889</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A219" s="9">
-        <v>2052016</v>
+      <c r="A219" s="7">
+        <v>26052016</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>69</v>
@@ -6061,16 +6119,16 @@
       <c r="F219" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G219" s="7" t="s">
-        <v>108</v>
+      <c r="G219" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H219" s="5">
-        <v>0.81736111111111109</v>
+        <v>0.82152777777777775</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A220" s="9">
-        <v>2052016</v>
+      <c r="A220" s="7">
+        <v>26052016</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>69</v>
@@ -6085,88 +6143,88 @@
       <c r="F220" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G220" s="7" t="s">
-        <v>106</v>
+      <c r="G220" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H220" s="5">
-        <v>0.23333333333333331</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A221" s="9">
-        <v>2052016</v>
+      <c r="A221" s="7">
+        <v>26052016</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D221" s="1">
-        <v>3</v>
-      </c>
-      <c r="E221" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="F221" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G221" s="7" t="s">
-        <v>109</v>
+      <c r="G221" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H221" s="5">
-        <v>0.52430555555555558</v>
+        <v>0.3576388888888889</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A222" s="9">
-        <v>2052016</v>
+      <c r="A222" s="7">
+        <v>26052016</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D222" s="1">
-        <v>4</v>
-      </c>
-      <c r="E222" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="F222" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G222" s="7" t="s">
-        <v>108</v>
+      <c r="G222" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H222" s="5">
-        <v>0.81805555555555554</v>
+        <v>0.8222222222222223</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A223" s="9">
-        <v>2052016</v>
+      <c r="A223" s="7">
+        <v>26052016</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D223" s="1">
-        <v>4</v>
-      </c>
-      <c r="E223" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="F223" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G223" s="7" t="s">
-        <v>106</v>
+      <c r="G223" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H223" s="5">
-        <v>0.23402777777777781</v>
+        <v>0.22361111111111109</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A224" s="9">
-        <v>2052016</v>
+      <c r="A224" s="7">
+        <v>26052016</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>71</v>
@@ -6175,22 +6233,22 @@
         <v>101</v>
       </c>
       <c r="D224" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E224" s="1"/>
       <c r="F224" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G224" s="7" t="s">
-        <v>107</v>
+      <c r="G224" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H224" s="5">
-        <v>0.52569444444444446</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" s="9">
-        <v>2052016</v>
+        <v>0.35902777777777778</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" s="7">
+        <v>26052016</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>71</v>
@@ -6199,22 +6257,22 @@
         <v>101</v>
       </c>
       <c r="D225" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E225" s="1"/>
       <c r="F225" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G225" s="7" t="s">
-        <v>108</v>
+      <c r="G225" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H225" s="5">
-        <v>0.81944444444444453</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" s="9">
-        <v>2052016</v>
+        <v>0.82361111111111107</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" s="7">
+        <v>26052016</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>71</v>
@@ -6229,16 +6287,16 @@
       <c r="F226" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G226" s="7" t="s">
-        <v>106</v>
+      <c r="G226" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H226" s="5">
-        <v>0.23611111111111113</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="9">
-        <v>2052016</v>
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" s="7">
+        <v>26052016</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>72</v>
@@ -6253,16 +6311,16 @@
       <c r="F227" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G227" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H227" s="8">
-        <v>0.52569444444444446</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" s="9">
-        <v>2052016</v>
+      <c r="G227" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H227" s="9">
+        <v>0.35902777777777778</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" s="7">
+        <v>26052016</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>72</v>
@@ -6277,16 +6335,16 @@
       <c r="F228" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G228" s="7" t="s">
-        <v>108</v>
+      <c r="G228" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H228" s="5">
-        <v>0.82013888888888886</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" s="9">
-        <v>2052016</v>
+        <v>0.82500000000000007</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" s="7">
+        <v>26052016</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>72</v>
@@ -6301,16 +6359,16 @@
       <c r="F229" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G229" s="7" t="s">
-        <v>106</v>
+      <c r="G229" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H229" s="5">
-        <v>0.23750000000000002</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230" s="9">
-        <v>2052016</v>
+        <v>0.22638888888888889</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" s="7">
+        <v>26052016</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>73</v>
@@ -6319,22 +6377,22 @@
         <v>101</v>
       </c>
       <c r="D230" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E230" s="1"/>
       <c r="F230" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G230" s="7" t="s">
-        <v>107</v>
+      <c r="G230" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H230" s="5">
-        <v>0.52638888888888891</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" s="9">
-        <v>2052016</v>
+        <v>0.36041666666666666</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" s="7">
+        <v>26052016</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>73</v>
@@ -6349,16 +6407,16 @@
       <c r="F231" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G231" s="7" t="s">
-        <v>108</v>
+      <c r="G231" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H231" s="5">
-        <v>0.82152777777777775</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" s="9">
-        <v>2052016</v>
+        <v>0.82638888888888884</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" s="7">
+        <v>26052016</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>73</v>
@@ -6373,16 +6431,16 @@
       <c r="F232" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G232" s="7" t="s">
-        <v>106</v>
+      <c r="G232" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H232" s="5">
-        <v>0.2388888888888889</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" s="9">
-        <v>2052016</v>
+        <v>0.22777777777777777</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" s="7">
+        <v>26052016</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>74</v>
@@ -6391,22 +6449,22 @@
         <v>101</v>
       </c>
       <c r="D233" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E233" s="1"/>
       <c r="F233" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G233" s="7" t="s">
-        <v>109</v>
+      <c r="G233" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H233" s="5">
-        <v>0.52638888888888891</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" s="9">
-        <v>2052016</v>
+        <v>0.36041666666666666</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" s="7">
+        <v>26052016</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>74</v>
@@ -6415,46 +6473,47 @@
         <v>101</v>
       </c>
       <c r="D234" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E234" s="1"/>
       <c r="F234" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G234" s="7" t="s">
-        <v>108</v>
+      <c r="G234" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H234" s="5">
-        <v>0.8222222222222223</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" s="9">
-        <v>2052016</v>
-      </c>
-      <c r="B235" s="1" t="s">
+        <v>0.82638888888888884</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" s="7">
+        <v>26052016</v>
+      </c>
+      <c r="B235" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C235" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D235" s="1">
-        <v>4</v>
-      </c>
-      <c r="E235" s="1"/>
-      <c r="F235" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G235" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H235" s="5">
-        <v>0.24027777777777778</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" s="9">
-        <v>2052016</v>
+      <c r="C235" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D235" s="11">
+        <v>3</v>
+      </c>
+      <c r="E235" s="11"/>
+      <c r="F235" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G235" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H235" s="12">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="I235" s="10"/>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" s="7">
+        <v>26052016</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>75</v>
@@ -6463,24 +6522,22 @@
         <v>101</v>
       </c>
       <c r="D236" s="1">
-        <v>3</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E236" s="1"/>
       <c r="F236" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G236" s="7" t="s">
-        <v>107</v>
+      <c r="G236" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H236" s="5">
-        <v>0.52777777777777779</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A237" s="9">
-        <v>2052016</v>
+        <v>0.36249999999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" s="7">
+        <v>26052016</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>75</v>
@@ -6489,22 +6546,22 @@
         <v>101</v>
       </c>
       <c r="D237" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E237" s="1"/>
       <c r="F237" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G237" s="7" t="s">
-        <v>108</v>
+      <c r="G237" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H237" s="5">
-        <v>0.82361111111111107</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238" s="9">
-        <v>2052016</v>
+        <v>0.82777777777777783</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" s="7">
+        <v>26052016</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>75</v>
@@ -6519,304 +6576,304 @@
       <c r="F238" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G238" s="7" t="s">
-        <v>106</v>
+      <c r="G238" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H238" s="5">
-        <v>0.24097222222222223</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A239" s="9">
-        <v>2052016</v>
-      </c>
-      <c r="B239" s="11" t="s">
+        <v>0.23055555555555554</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" s="7">
+        <v>26052016</v>
+      </c>
+      <c r="B239" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C239" s="11" t="s">
+      <c r="C239" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D239" s="11"/>
-      <c r="E239" s="11" t="s">
+      <c r="D239" s="1"/>
+      <c r="E239" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G239" s="7" t="s">
-        <v>107</v>
+      <c r="G239" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H239" s="5">
-        <v>0.52847222222222223</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A240" s="9">
-        <v>2052016</v>
-      </c>
-      <c r="B240" s="11" t="s">
+        <v>0.36319444444444443</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" s="7">
+        <v>26052016</v>
+      </c>
+      <c r="B240" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C240" s="11" t="s">
+      <c r="C240" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D240" s="11"/>
-      <c r="E240" s="11" t="s">
+      <c r="D240" s="1"/>
+      <c r="E240" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G240" s="7" t="s">
-        <v>108</v>
+      <c r="G240" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H240" s="5">
-        <v>0.82430555555555562</v>
+        <v>0.82847222222222217</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="9">
-        <v>2052016</v>
-      </c>
-      <c r="B241" s="11" t="s">
+      <c r="A241" s="7">
+        <v>26052016</v>
+      </c>
+      <c r="B241" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C241" s="11" t="s">
+      <c r="C241" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D241" s="11"/>
-      <c r="E241" s="11" t="s">
+      <c r="D241" s="1"/>
+      <c r="E241" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G241" s="7" t="s">
-        <v>106</v>
+      <c r="G241" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H241" s="5">
-        <v>0.24236111111111111</v>
+        <v>0.23333333333333331</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" s="9">
-        <v>2052016</v>
-      </c>
-      <c r="B242" s="11" t="s">
+      <c r="A242" s="7">
+        <v>26052016</v>
+      </c>
+      <c r="B242" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C242" s="11" t="s">
+      <c r="C242" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D242" s="11"/>
-      <c r="E242" s="11" t="s">
+      <c r="D242" s="1"/>
+      <c r="E242" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G242" s="7" t="s">
-        <v>107</v>
+      <c r="G242" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H242" s="5">
-        <v>0.52847222222222223</v>
+        <v>0.36319444444444443</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="9">
-        <v>2052016</v>
-      </c>
-      <c r="B243" s="11" t="s">
+      <c r="A243" s="7">
+        <v>26052016</v>
+      </c>
+      <c r="B243" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C243" s="11" t="s">
+      <c r="C243" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D243" s="11"/>
-      <c r="E243" s="11" t="s">
+      <c r="D243" s="1"/>
+      <c r="E243" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G243" s="7" t="s">
-        <v>108</v>
+      <c r="G243" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H243" s="5">
-        <v>0.82500000000000007</v>
+        <v>0.82847222222222217</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="9">
-        <v>2052016</v>
-      </c>
-      <c r="B244" s="11" t="s">
+      <c r="A244" s="7">
+        <v>26052016</v>
+      </c>
+      <c r="B244" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C244" s="11" t="s">
+      <c r="C244" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D244" s="11"/>
-      <c r="E244" s="11" t="s">
+      <c r="D244" s="1"/>
+      <c r="E244" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G244" s="7" t="s">
-        <v>106</v>
+      <c r="G244" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H244" s="5">
-        <v>0.24722222222222223</v>
+        <v>0.23611111111111113</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" s="9">
-        <v>2052016</v>
-      </c>
-      <c r="B245" s="11" t="s">
+      <c r="A245" s="7">
+        <v>26052016</v>
+      </c>
+      <c r="B245" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C245" s="11" t="s">
+      <c r="C245" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D245" s="11"/>
-      <c r="E245" s="11" t="s">
+      <c r="D245" s="1"/>
+      <c r="E245" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G245" s="7" t="s">
-        <v>109</v>
+      <c r="G245" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H245" s="5">
-        <v>0.52986111111111112</v>
+        <v>0.36458333333333331</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246" s="9">
-        <v>2052016</v>
-      </c>
-      <c r="B246" s="11" t="s">
+      <c r="A246" s="7">
+        <v>26052016</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C246" s="11" t="s">
+      <c r="C246" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D246" s="11"/>
-      <c r="E246" s="11" t="s">
+      <c r="D246" s="1"/>
+      <c r="E246" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G246" s="7" t="s">
-        <v>108</v>
+      <c r="G246" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H246" s="5">
-        <v>0.82638888888888884</v>
+        <v>0.82916666666666661</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247" s="9">
-        <v>2052016</v>
-      </c>
-      <c r="B247" s="11" t="s">
+      <c r="A247" s="7">
+        <v>26052016</v>
+      </c>
+      <c r="B247" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C247" s="11" t="s">
+      <c r="C247" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D247" s="11"/>
-      <c r="E247" s="11" t="s">
+      <c r="D247" s="1"/>
+      <c r="E247" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G247" s="7" t="s">
-        <v>106</v>
+      <c r="G247" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H247" s="5">
-        <v>0.24444444444444446</v>
+        <v>0.23750000000000002</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248" s="9">
-        <v>2052016</v>
-      </c>
-      <c r="B248" s="11" t="s">
+      <c r="A248" s="7">
+        <v>26052016</v>
+      </c>
+      <c r="B248" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C248" s="11" t="s">
+      <c r="C248" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D248" s="11"/>
-      <c r="E248" s="11" t="s">
+      <c r="D248" s="1"/>
+      <c r="E248" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G248" s="7" t="s">
-        <v>107</v>
+      <c r="G248" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H248" s="5">
-        <v>0.53055555555555556</v>
+        <v>0.36458333333333331</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" s="9">
-        <v>2052016</v>
-      </c>
-      <c r="B249" s="11" t="s">
+      <c r="A249" s="7">
+        <v>26052016</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C249" s="11" t="s">
+      <c r="C249" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D249" s="11"/>
-      <c r="E249" s="11" t="s">
+      <c r="D249" s="1"/>
+      <c r="E249" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G249" s="7" t="s">
-        <v>108</v>
+      <c r="G249" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H249" s="5">
-        <v>0.82708333333333339</v>
+        <v>0.82916666666666661</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A250" s="9">
-        <v>2052016</v>
-      </c>
-      <c r="B250" s="11" t="s">
+      <c r="A250" s="7">
+        <v>26052016</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C250" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D250" s="11"/>
-      <c r="E250" s="11" t="s">
+      <c r="C250" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G250" s="7" t="s">
-        <v>106</v>
+      <c r="G250" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H250" s="5">
-        <v>0.24513888888888888</v>
+        <v>0.2388888888888889</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="9">
-        <v>2052016</v>
+      <c r="A251" s="7">
+        <v>26052016</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>80</v>
@@ -6825,22 +6882,22 @@
         <v>101</v>
       </c>
       <c r="D251" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E251" s="1"/>
       <c r="F251" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G251" s="7" t="s">
-        <v>107</v>
+      <c r="G251" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H251" s="5">
-        <v>0.53055555555555556</v>
+        <v>0.36527777777777781</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" s="9">
-        <v>2052016</v>
+      <c r="A252" s="7">
+        <v>26052016</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>80</v>
@@ -6849,22 +6906,22 @@
         <v>101</v>
       </c>
       <c r="D252" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E252" s="1"/>
       <c r="F252" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G252" s="7" t="s">
-        <v>108</v>
+      <c r="G252" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H252" s="5">
-        <v>0.82777777777777783</v>
+        <v>0.82986111111111116</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" s="9">
-        <v>2052016</v>
+      <c r="A253" s="7">
+        <v>26052016</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>80</v>
@@ -6879,16 +6936,16 @@
       <c r="F253" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G253" s="7" t="s">
-        <v>106</v>
+      <c r="G253" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H253" s="5">
-        <v>0.24652777777777779</v>
+        <v>0.24027777777777778</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" s="9">
-        <v>2052016</v>
+      <c r="A254" s="7">
+        <v>26052016</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>81</v>
@@ -6903,16 +6960,16 @@
       <c r="F254" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G254" s="7" t="s">
-        <v>107</v>
+      <c r="G254" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H254" s="5">
-        <v>0.53194444444444444</v>
+        <v>0.36736111111111108</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255" s="9">
-        <v>2052016</v>
+      <c r="A255" s="7">
+        <v>26052016</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>81</v>
@@ -6927,16 +6984,16 @@
       <c r="F255" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G255" s="7" t="s">
-        <v>108</v>
+      <c r="G255" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H255" s="5">
-        <v>0.82916666666666661</v>
+        <v>0.83124999999999993</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256" s="9">
-        <v>2052016</v>
+      <c r="A256" s="7">
+        <v>26052016</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>81</v>
@@ -6951,16 +7008,16 @@
       <c r="F256" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G256" s="7" t="s">
-        <v>106</v>
+      <c r="G256" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H256" s="5">
-        <v>0.24791666666666667</v>
+        <v>0.24166666666666667</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="9">
-        <v>2052016</v>
+      <c r="A257" s="7">
+        <v>26052016</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>82</v>
@@ -6975,16 +7032,16 @@
       <c r="F257" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G257" s="7" t="s">
-        <v>109</v>
+      <c r="G257" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H257" s="5">
-        <v>0.53263888888888888</v>
+        <v>0.36874999999999997</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258" s="9">
-        <v>2052016</v>
+      <c r="A258" s="7">
+        <v>26052016</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>82</v>
@@ -6993,22 +7050,22 @@
         <v>101</v>
       </c>
       <c r="D258" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E258" s="1"/>
       <c r="F258" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G258" s="7" t="s">
-        <v>108</v>
+      <c r="G258" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H258" s="5">
-        <v>0.82986111111111116</v>
+        <v>0.83263888888888893</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" s="9">
-        <v>2052016</v>
+      <c r="A259" s="7">
+        <v>26052016</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>82</v>
@@ -7023,16 +7080,16 @@
       <c r="F259" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G259" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H259" s="8">
-        <v>0.24930555555555556</v>
+      <c r="G259" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H259" s="5">
+        <v>0.25138888888888888</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260" s="9">
-        <v>2052016</v>
+      <c r="A260" s="7">
+        <v>26052016</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>83</v>
@@ -7041,22 +7098,22 @@
         <v>101</v>
       </c>
       <c r="D260" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E260" s="1"/>
       <c r="F260" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G260" s="7" t="s">
-        <v>107</v>
+      <c r="G260" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H260" s="5">
-        <v>0.53611111111111109</v>
+        <v>0.37083333333333335</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" s="9">
-        <v>2052016</v>
+      <c r="A261" s="7">
+        <v>26052016</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>83</v>
@@ -7071,16 +7128,16 @@
       <c r="F261" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G261" s="7" t="s">
-        <v>108</v>
+      <c r="G261" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H261" s="5">
-        <v>0.83124999999999993</v>
+        <v>0.8340277777777777</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" s="9">
-        <v>2052016</v>
+      <c r="A262" s="7">
+        <v>26052016</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>83</v>
@@ -7095,16 +7152,16 @@
       <c r="F262" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G262" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H262" s="8">
-        <v>0.25069444444444444</v>
+      <c r="G262" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H262" s="5">
+        <v>0.25277777777777777</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263" s="9">
-        <v>2052016</v>
+      <c r="A263" s="7">
+        <v>26052016</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>84</v>
@@ -7113,22 +7170,24 @@
         <v>101</v>
       </c>
       <c r="D263" s="1">
-        <v>4</v>
-      </c>
-      <c r="E263" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="F263" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G263" s="7" t="s">
-        <v>107</v>
+      <c r="G263" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H263" s="5">
-        <v>0.53472222222222221</v>
+        <v>0.37222222222222223</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264" s="9">
-        <v>2052016</v>
+      <c r="A264" s="7">
+        <v>26052016</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>84</v>
@@ -7137,22 +7196,24 @@
         <v>101</v>
       </c>
       <c r="D264" s="1">
-        <v>4</v>
-      </c>
-      <c r="E264" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="F264" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G264" s="7" t="s">
-        <v>108</v>
+      <c r="G264" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H264" s="5">
-        <v>0.83194444444444438</v>
+        <v>0.8354166666666667</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A265" s="9">
-        <v>2052016</v>
+      <c r="A265" s="7">
+        <v>26052016</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>84</v>
@@ -7161,22 +7222,24 @@
         <v>101</v>
       </c>
       <c r="D265" s="1">
-        <v>4</v>
-      </c>
-      <c r="E265" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="F265" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G265" s="7" t="s">
-        <v>106</v>
+      <c r="G265" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H265" s="5">
-        <v>0.25138888888888888</v>
+        <v>0.25416666666666665</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A266" s="9">
-        <v>2052016</v>
+      <c r="A266" s="7">
+        <v>26052016</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>85</v>
@@ -7185,22 +7248,22 @@
         <v>101</v>
       </c>
       <c r="D266" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E266" s="1"/>
       <c r="F266" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G266" s="7" t="s">
-        <v>107</v>
+      <c r="G266" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H266" s="5">
-        <v>0.53749999999999998</v>
+        <v>0.3743055555555555</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267" s="9">
-        <v>2052016</v>
+      <c r="A267" s="7">
+        <v>26052016</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>85</v>
@@ -7215,16 +7278,16 @@
       <c r="F267" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G267" s="7" t="s">
-        <v>108</v>
+      <c r="G267" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H267" s="5">
-        <v>0.83333333333333337</v>
+        <v>0.83680555555555547</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" s="9">
-        <v>2052016</v>
+      <c r="A268" s="7">
+        <v>26052016</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>85</v>
@@ -7233,22 +7296,22 @@
         <v>101</v>
       </c>
       <c r="D268" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E268" s="1"/>
       <c r="F268" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G268" s="7" t="s">
-        <v>106</v>
+      <c r="G268" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H268" s="5">
-        <v>0.25347222222222221</v>
+        <v>0.25555555555555559</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269" s="9">
-        <v>2052016</v>
+      <c r="A269" s="7">
+        <v>26052016</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>86</v>
@@ -7263,16 +7326,16 @@
       <c r="F269" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G269" s="7" t="s">
-        <v>109</v>
+      <c r="G269" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H269" s="5">
-        <v>0.53819444444444442</v>
+        <v>0.16805555555555554</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" s="9">
-        <v>2052016</v>
+      <c r="A270" s="7">
+        <v>26052016</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>86</v>
@@ -7287,16 +7350,16 @@
       <c r="F270" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G270" s="7" t="s">
-        <v>108</v>
+      <c r="G270" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H270" s="5">
-        <v>0.8340277777777777</v>
+        <v>0.83819444444444446</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271" s="9">
-        <v>2052016</v>
+      <c r="A271" s="7">
+        <v>26052016</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>86</v>
@@ -7311,19 +7374,17 @@
       <c r="F271" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G271" s="7" t="s">
-        <v>106</v>
+      <c r="G271" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H271" s="5">
         <v>0.25694444444444448</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B272" s="10"/>
       <c r="C272" s="10"/>
       <c r="D272" s="10"/>
       <c r="E272" s="10"/>
-      <c r="F272" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
